--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="397">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1057,9 +1057,6 @@
     <t>Palkka riippuu osittain firman tuloksesta, joten vaikea sanoa tarkkaan.</t>
   </si>
   <si>
-    <t>14250 + alv</t>
-  </si>
-  <si>
     <t>project manager</t>
   </si>
   <si>
@@ -1073,6 +1070,138 @@
   </si>
   <si>
     <t>Arkkitehti / lead dev / konsultti</t>
+  </si>
+  <si>
+    <t>ohjelmistokehittäjä full-stack</t>
+  </si>
+  <si>
+    <t>Ei niitä ole enää</t>
+  </si>
+  <si>
+    <t>Fullstack</t>
+  </si>
+  <si>
+    <t>99 000</t>
+  </si>
+  <si>
+    <t>toimitusjohtaja, projektipäällikkö, full-stack</t>
+  </si>
+  <si>
+    <t>DevOps konsultti</t>
+  </si>
+  <si>
+    <t>Full-stack developer / project lead</t>
+  </si>
+  <si>
+    <t>Ohjelmistokehittäjä (full-stack), arkkitehti</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Full-Stack Software Engineer</t>
+  </si>
+  <si>
+    <t>Vaikea vastata henkilönä joka tekee yrityksen kautta yhdelle ulkomaalaiselle yritykselle töitä (jolla ei ole entiteettiä suomessa). Vastasin nyt ikään kuin olisin yrittäjä vaikka käytännössä tämä on sama kuin olisin palkkaduunissa.</t>
+  </si>
+  <si>
+    <t>Ohjelmistokehitysjohtaja</t>
+  </si>
+  <si>
+    <t>Pakettiin kuuluu reilu määrä optioita ja palkka nousee (ja laskee) firman liikevaihdon myötä.</t>
+  </si>
+  <si>
+    <t>DevSecOps</t>
+  </si>
+  <si>
+    <t>Teleoperaattori</t>
+  </si>
+  <si>
+    <t>Vastuullinen arkkitehti</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>57 000</t>
+  </si>
+  <si>
+    <t>Ohjelmistokehittäjä (full stack, konsultti)</t>
+  </si>
+  <si>
+    <t>Backend, pilvi-infra</t>
+  </si>
+  <si>
+    <t>Toimitusjohtaja</t>
+  </si>
+  <si>
+    <t>Länsi-Suomi</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>full-stack ohjelmistokehittäjä/arkkitehti</t>
+  </si>
+  <si>
+    <t>Helikopteri</t>
+  </si>
+  <si>
+    <t>senior backend dev</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>Full-stack developer + product roles</t>
+  </si>
+  <si>
+    <t>full-stack developer</t>
+  </si>
+  <si>
+    <t>Team Leader</t>
+  </si>
+  <si>
+    <t>DevOps, Cloud Architect</t>
+  </si>
+  <si>
+    <t>New York, etänä</t>
+  </si>
+  <si>
+    <t>Full-stack softwar e engineer</t>
+  </si>
+  <si>
+    <t>Pieni startup</t>
+  </si>
+  <si>
+    <t>arkkitehti / tech advisor</t>
+  </si>
+  <si>
+    <t>it-ala 10+v koodaus 6v</t>
+  </si>
+  <si>
+    <t>Nixu</t>
+  </si>
+  <si>
+    <t>If Vakuutus</t>
+  </si>
+  <si>
+    <t>CTO, esimies, yrittäjä, full-stack kehittäjä ja arkkitehti</t>
+  </si>
+  <si>
+    <t>Rare Agency Oy</t>
+  </si>
+  <si>
+    <t>Data-arkkitehti</t>
+  </si>
+  <si>
+    <t>full stack developer, architect, lead</t>
+  </si>
+  <si>
+    <t>Ohjelmistokehittäjä (mobiili)</t>
+  </si>
+  <si>
+    <t>Vaikka merkitsin, että palkkani ei ole mielestäni kilpailukykyinen, se ei tarkoita ettenkö olisi siihen tyytyväinen. Tilanne yrittäjillä ei yleensä vastaa samaa kuin palkansaajilla, joten palkka ei ole yrittäjille monestikaan niin mustavalkoinen asia vaan kysymys on isommasta kuviosta.</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1123,6 +1252,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -13921,34 +14053,34 @@
     </row>
     <row r="334">
       <c r="A334" s="3">
-        <v>44246.46023069444</v>
+        <v>44246.4605390162</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E334" s="2">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G334" s="4">
         <v>1.0</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K334" s="2" t="s">
-        <v>348</v>
+        <v>23</v>
+      </c>
+      <c r="J334" s="2">
+        <v>5500.0</v>
       </c>
       <c r="L334" s="2" t="s">
         <v>19</v>
@@ -13956,19 +14088,19 @@
     </row>
     <row r="335">
       <c r="A335" s="3">
-        <v>44246.4605390162</v>
+        <v>44246.46072378472</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E335" s="2">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>16</v>
@@ -13983,7 +14115,7 @@
         <v>23</v>
       </c>
       <c r="J335" s="2">
-        <v>5500.0</v>
+        <v>5600.0</v>
       </c>
       <c r="L335" s="2" t="s">
         <v>19</v>
@@ -13991,7 +14123,7 @@
     </row>
     <row r="336">
       <c r="A336" s="3">
-        <v>44246.46072378472</v>
+        <v>44246.46149740741</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>14</v>
@@ -14000,10 +14132,10 @@
         <v>32</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E336" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>16</v>
@@ -14015,10 +14147,13 @@
         <v>350</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J336" s="2">
-        <v>5600.0</v>
+        <v>5500.0</v>
+      </c>
+      <c r="K336" s="2">
+        <v>72000.0</v>
       </c>
       <c r="L336" s="2" t="s">
         <v>19</v>
@@ -14026,19 +14161,19 @@
     </row>
     <row r="337">
       <c r="A337" s="3">
-        <v>44246.46149740741</v>
+        <v>44246.46252806713</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E337" s="2">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>16</v>
@@ -14050,100 +14185,97 @@
         <v>351</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J337" s="2">
-        <v>5500.0</v>
+        <v>4250.0</v>
       </c>
       <c r="K337" s="2">
-        <v>72000.0</v>
+        <v>56000.0</v>
       </c>
       <c r="L337" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="3">
-        <v>44246.46252806713</v>
+        <v>44246.46314320602</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E338" s="2">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G338" s="4">
         <v>1.0</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J338" s="2">
-        <v>4250.0</v>
+        <v>34</v>
       </c>
       <c r="K338" s="2">
-        <v>56000.0</v>
+        <v>155000.0</v>
       </c>
       <c r="L338" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="3">
-        <v>44246.46314320602</v>
+        <v>44246.46330138889</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E339" s="2">
-        <v>8.0</v>
+        <v>58</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G339" s="4">
         <v>1.0</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K339" s="2">
-        <v>155000.0</v>
+        <v>18</v>
+      </c>
+      <c r="J339" s="2">
+        <v>5700.0</v>
       </c>
       <c r="L339" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="M339" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="3">
-        <v>44246.46330138889</v>
+        <v>44246.46449773148</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E340" s="2">
+        <v>4.0</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>16</v>
@@ -14152,53 +14284,2148 @@
         <v>1.0</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="I340" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J340" s="2">
-        <v>5700.0</v>
+        <v>4200.0</v>
+      </c>
+      <c r="K340" s="2">
+        <v>55000.0</v>
       </c>
       <c r="L340" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M340" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="3">
-        <v>44246.46449773148</v>
+        <v>44246.466155671296</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C341" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E341" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G341" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J341" s="2">
+        <v>4650.0</v>
+      </c>
+      <c r="K341" s="2">
+        <v>58125.0</v>
+      </c>
+      <c r="L341" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3">
+        <v>44246.46650821759</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E342" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G342" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J342" s="2">
+        <v>2700.0</v>
+      </c>
+      <c r="K342" s="2">
+        <v>33750.0</v>
+      </c>
+      <c r="L342" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3">
+        <v>44246.466890578704</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E343" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G343" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J343" s="2">
+        <v>4700.0</v>
+      </c>
+      <c r="L343" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3">
+        <v>44246.46700769676</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E344" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G344" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J344" s="2">
+        <v>4650.0</v>
+      </c>
+      <c r="K344" s="2">
+        <v>58125.0</v>
+      </c>
+      <c r="L344" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3">
+        <v>44246.46793802083</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E345" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G345" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J345" s="2">
+        <v>5500.0</v>
+      </c>
+      <c r="K345" s="2">
+        <v>71000.0</v>
+      </c>
+      <c r="L345" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3">
+        <v>44246.469092314815</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E346" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I346" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K346" s="2">
+        <v>135000.0</v>
+      </c>
+      <c r="L346" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3">
+        <v>44246.46914594907</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E341" s="2">
+      <c r="D347" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E347" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G347" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J347" s="2">
+        <v>3850.0</v>
+      </c>
+      <c r="K347" s="2">
+        <v>48100.0</v>
+      </c>
+      <c r="L347" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3">
+        <v>44246.46927368056</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E348" s="2">
         <v>4.0</v>
       </c>
-      <c r="F341" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G341" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H341" s="2" t="s">
+      <c r="F348" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G348" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J348" s="2">
+        <v>3900.0</v>
+      </c>
+      <c r="K348" s="2">
+        <v>52000.0</v>
+      </c>
+      <c r="L348" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3">
+        <v>44246.469599178236</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E349" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G349" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H349" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I341" s="2" t="s">
+      <c r="I349" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J341" s="2">
+      <c r="J349" s="2">
+        <v>5850.0</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L349" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3">
+        <v>44246.47038478009</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E350" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G350" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J350" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="L350" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3">
+        <v>44246.471895717594</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E351" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G351" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J351" s="2">
+        <v>5800.0</v>
+      </c>
+      <c r="K351" s="2">
+        <v>73000.0</v>
+      </c>
+      <c r="L351" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3">
+        <v>44246.472124155094</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E352" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G352" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J352" s="2">
+        <v>3400.0</v>
+      </c>
+      <c r="K352" s="2">
+        <v>40800.0</v>
+      </c>
+      <c r="L352" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3">
+        <v>44246.47317686342</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E353" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G353" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J353" s="2">
+        <v>4300.0</v>
+      </c>
+      <c r="K353" s="2">
+        <v>56000.0</v>
+      </c>
+      <c r="L353" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3">
+        <v>44246.47367034722</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E354" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G354" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J354" s="2">
+        <v>3800.0</v>
+      </c>
+      <c r="K354" s="6">
+        <v>47500.0</v>
+      </c>
+      <c r="L354" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3">
+        <v>44246.473747662036</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E355" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G355" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J355" s="2">
+        <v>3700.0</v>
+      </c>
+      <c r="K355" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="L355" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3">
+        <v>44246.47380755787</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E356" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K356" s="2">
+        <v>111000.0</v>
+      </c>
+      <c r="L356" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N356" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3">
+        <v>44246.47442</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E357" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G357" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J357" s="2">
+        <v>6000.0</v>
+      </c>
+      <c r="K357" s="2">
+        <v>75000.0</v>
+      </c>
+      <c r="L357" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N357" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3">
+        <v>44246.475327210646</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E358" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G358" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J358" s="2">
+        <v>4800.0</v>
+      </c>
+      <c r="L358" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M358" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3">
+        <v>44246.476732696756</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E359" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G359" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J359" s="2">
+        <v>6350.0</v>
+      </c>
+      <c r="K359" s="2">
+        <v>89000.0</v>
+      </c>
+      <c r="L359" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3">
+        <v>44246.478350405094</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E360" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G360" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J360" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K360" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="L360" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3">
+        <v>44246.480971446756</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E361" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G361" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J361" s="2">
+        <v>3744.0</v>
+      </c>
+      <c r="K361" s="2">
+        <v>46800.0</v>
+      </c>
+      <c r="L361" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M361" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3">
+        <v>44246.4818475</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E362" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G362" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J362" s="2">
+        <v>3220.0</v>
+      </c>
+      <c r="K362" s="2">
+        <v>40250.0</v>
+      </c>
+      <c r="L362" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M362" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3">
+        <v>44246.48283262731</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E363" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G363" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I363" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J363" s="2">
+        <v>7000.0</v>
+      </c>
+      <c r="K363" s="6">
+        <v>87500.0</v>
+      </c>
+      <c r="L363" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3">
+        <v>44246.48312923611</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E364" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G364" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J364" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K364" s="2">
+        <v>56250.0</v>
+      </c>
+      <c r="L364" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3">
+        <v>44246.48446436343</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E365" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G365" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J365" s="2">
+        <v>2400.0</v>
+      </c>
+      <c r="K365" s="2">
+        <v>30000.0</v>
+      </c>
+      <c r="L365" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3">
+        <v>44246.48538266204</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E366" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G366" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J366" s="2">
+        <v>3350.0</v>
+      </c>
+      <c r="L366" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3">
+        <v>44246.48585376157</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E367" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G367" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J367" s="2">
+        <v>4155.0</v>
+      </c>
+      <c r="K367" s="2">
+        <v>59000.0</v>
+      </c>
+      <c r="L367" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3">
+        <v>44246.48638094908</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E368" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G368" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J368" s="2">
+        <v>5300.0</v>
+      </c>
+      <c r="K368" s="2">
+        <v>68000.0</v>
+      </c>
+      <c r="L368" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3">
+        <v>44246.48674011574</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E369" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G369" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J369" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K369" s="2">
+        <v>56300.0</v>
+      </c>
+      <c r="L369" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3">
+        <v>44246.48775204861</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E370" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G370" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J370" s="2">
+        <v>5500.0</v>
+      </c>
+      <c r="K370" s="2">
+        <v>70625.0</v>
+      </c>
+      <c r="L370" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3">
+        <v>44246.48821539352</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E371" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G371" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J371" s="2">
+        <v>4400.0</v>
+      </c>
+      <c r="K371" s="2">
+        <v>55000.0</v>
+      </c>
+      <c r="L371" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3">
+        <v>44246.4892687963</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E372" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G372" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K372" s="2">
+        <v>115000.0</v>
+      </c>
+      <c r="L372" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3">
+        <v>44246.490505891205</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E373" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G373" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I373" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J373" s="2">
         <v>4200.0</v>
       </c>
-      <c r="K341" s="2">
-        <v>55000.0</v>
-      </c>
-      <c r="L341" s="2" t="s">
+      <c r="K373" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="L373" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M373" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3">
+        <v>44246.49070971065</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E374" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G374" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H374" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I374" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J374" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="K374" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L374" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3">
+        <v>44246.49193607639</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E375" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G375" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H375" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I375" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J375" s="2">
+        <v>3800.0</v>
+      </c>
+      <c r="K375" s="2">
+        <v>47500.0</v>
+      </c>
+      <c r="L375" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3">
+        <v>44246.49235197916</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E376" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G376" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J376" s="2">
+        <v>4700.0</v>
+      </c>
+      <c r="K376" s="2">
+        <v>61000.0</v>
+      </c>
+      <c r="L376" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3">
+        <v>44246.50139335648</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E377" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G377" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H377" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I377" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J377" s="2">
+        <v>5300.0</v>
+      </c>
+      <c r="K377" s="2">
+        <v>76000.0</v>
+      </c>
+      <c r="L377" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3">
+        <v>44246.50509453704</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E378" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J378" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K378" s="2">
+        <v>58500.0</v>
+      </c>
+      <c r="L378" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="3">
+        <v>44246.50643631944</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E379" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G379" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K379" s="2">
+        <v>105000.0</v>
+      </c>
+      <c r="L379" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M379" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="3">
+        <v>44246.50869405092</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E380" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G380" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H380" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J380" s="2">
+        <v>4700.0</v>
+      </c>
+      <c r="K380" s="2">
+        <v>65000.0</v>
+      </c>
+      <c r="L380" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="3">
+        <v>44246.50944145833</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E381" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G381" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H381" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J381" s="2">
+        <v>4250.0</v>
+      </c>
+      <c r="K381" s="2">
+        <v>53000.0</v>
+      </c>
+      <c r="L381" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N381" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="3">
+        <v>44246.510636990744</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E382" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G382" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H382" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I382" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J382" s="2">
+        <v>5300.0</v>
+      </c>
+      <c r="K382" s="2">
+        <v>66250.0</v>
+      </c>
+      <c r="L382" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M382" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="3">
+        <v>44246.51216806713</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E383" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G383" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H383" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J383" s="2">
+        <v>4300.0</v>
+      </c>
+      <c r="K383" s="2">
+        <v>51600.0</v>
+      </c>
+      <c r="L383" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="3">
+        <v>44246.51285303241</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E384" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G384" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H384" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J384" s="2">
+        <v>3700.0</v>
+      </c>
+      <c r="K384" s="2">
+        <v>46250.0</v>
+      </c>
+      <c r="L384" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M384" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3">
+        <v>44246.51296508102</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E385" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K385" s="2">
+        <v>120000.0</v>
+      </c>
+      <c r="L385" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M385" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="3">
+        <v>44246.51302054398</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E386" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G386" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H386" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J386" s="2">
+        <v>6800.0</v>
+      </c>
+      <c r="K386" s="2">
+        <v>85000.0</v>
+      </c>
+      <c r="L386" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="3">
+        <v>44246.51391458334</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E387" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G387" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K387" s="2">
+        <v>130000.0</v>
+      </c>
+      <c r="L387" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="3">
+        <v>44246.516530127315</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E388" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G388" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J388" s="2">
+        <v>7500.0</v>
+      </c>
+      <c r="K388" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="L388" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="3">
+        <v>44246.51676666667</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E389" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G389" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H389" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I389" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J389" s="2">
+        <v>4700.0</v>
+      </c>
+      <c r="L389" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3">
+        <v>44246.51716953704</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E390" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G390" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H390" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I390" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J390" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K390" s="2">
+        <v>66000.0</v>
+      </c>
+      <c r="L390" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="3">
+        <v>44246.51727292824</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E391" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G391" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I391" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J391" s="2">
+        <v>3750.0</v>
+      </c>
+      <c r="K391" s="2">
+        <v>57000.0</v>
+      </c>
+      <c r="L391" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="3">
+        <v>44246.52218635417</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E392" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G392" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I392" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J392" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="K392" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="L392" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="3">
+        <v>44246.527653275465</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E393" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G393" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J393" s="2">
+        <v>3300.0</v>
+      </c>
+      <c r="K393" s="2">
+        <v>40956.0</v>
+      </c>
+      <c r="L393" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N393" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3">
+        <v>44246.528028506946</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E394" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G394" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J394" s="2">
+        <v>5300.0</v>
+      </c>
+      <c r="K394" s="2">
+        <v>66250.0</v>
+      </c>
+      <c r="L394" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3">
+        <v>44246.53032258102</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E395" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G395" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J395" s="2">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="3">
+        <v>44246.53700240741</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E396" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J396" s="2">
+        <v>3500.0</v>
+      </c>
+      <c r="K396" s="2">
+        <v>46000.0</v>
+      </c>
+      <c r="L396" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="3">
+        <v>44246.539646226855</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E397" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G397" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J397" s="2">
+        <v>4800.0</v>
+      </c>
+      <c r="K397" s="2">
+        <v>60000.0</v>
+      </c>
+      <c r="L397" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="406">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1202,6 +1202,33 @@
   </si>
   <si>
     <t>Vaikka merkitsin, että palkkani ei ole mielestäni kilpailukykyinen, se ei tarkoita ettenkö olisi siihen tyytyväinen. Tilanne yrittäjillä ei yleensä vastaa samaa kuin palkansaajilla, joten palkka ei ole yrittäjille monestikaan niin mustavalkoinen asia vaan kysymys on isommasta kuviosta.</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer (Backend)</t>
+  </si>
+  <si>
+    <t>Ennen koronaa oli osittainen etätyö, koronan jälkeen 100%</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>WordPress / Frontend-koodari</t>
+  </si>
+  <si>
+    <t>37 500</t>
+  </si>
+  <si>
+    <t>Frontend &amp; UX</t>
+  </si>
+  <si>
+    <t>Optiot</t>
+  </si>
+  <si>
+    <t>Full-stack ohjelmistokehittäjä (junior)</t>
+  </si>
+  <si>
+    <t>ATR Soft</t>
   </si>
 </sst>
 </file>
@@ -16429,6 +16456,500 @@
         <v>19</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="3">
+        <v>44246.55214344907</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E398" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G398" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H398" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I398" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J398" s="2">
+        <v>5700.0</v>
+      </c>
+      <c r="K398" s="2">
+        <v>74100.0</v>
+      </c>
+      <c r="L398" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N398" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3">
+        <v>44246.55232758102</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E399" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G399" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J399" s="2">
+        <v>3200.0</v>
+      </c>
+      <c r="K399" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="L399" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3">
+        <v>44246.56990268518</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E400" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G400" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J400" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="K400" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L400" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="3">
+        <v>44246.58209564815</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E401" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G401" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J401" s="2">
+        <v>5500.0</v>
+      </c>
+      <c r="K401" s="2">
+        <v>75000.0</v>
+      </c>
+      <c r="L401" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3">
+        <v>44246.58394819444</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E402" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G402" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I402" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J402" s="2">
+        <v>5470.0</v>
+      </c>
+      <c r="K402" s="2">
+        <v>94000.0</v>
+      </c>
+      <c r="L402" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="3">
+        <v>44246.58876788194</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E403" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J403" s="2">
+        <v>5300.0</v>
+      </c>
+      <c r="K403" s="2">
+        <v>66250.0</v>
+      </c>
+      <c r="L403" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="3">
+        <v>44246.5905702662</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E404" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J404" s="2">
+        <v>5200.0</v>
+      </c>
+      <c r="K404" s="2">
+        <v>65000.0</v>
+      </c>
+      <c r="L404" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3">
+        <v>44246.591665266205</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E405" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G405" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J405" s="2">
+        <v>6400.0</v>
+      </c>
+      <c r="K405" s="2">
+        <v>102000.0</v>
+      </c>
+      <c r="L405" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3">
+        <v>44246.60321177084</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E406" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G406" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J406" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="K406" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="L406" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="3">
+        <v>44246.611578344906</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E407" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G407" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I407" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J407" s="2">
+        <v>3900.0</v>
+      </c>
+      <c r="K407" s="2">
+        <v>55000.0</v>
+      </c>
+      <c r="L407" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="3">
+        <v>44246.61251465278</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E408" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G408" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J408" s="2">
+        <v>3200.0</v>
+      </c>
+      <c r="K408" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="L408" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="3">
+        <v>44246.613068645835</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E409" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G409" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J409" s="2">
+        <v>2600.0</v>
+      </c>
+      <c r="K409" s="2">
+        <v>32500.0</v>
+      </c>
+      <c r="L409" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M409" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="3">
+        <v>44246.61409989583</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E410" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G410" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J410" s="2">
+        <v>2900.0</v>
+      </c>
+      <c r="K410" s="2">
+        <v>36000.0</v>
+      </c>
+      <c r="L410" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="409">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1229,6 +1229,15 @@
   </si>
   <si>
     <t>ATR Soft</t>
+  </si>
+  <si>
+    <t>Viimsi</t>
+  </si>
+  <si>
+    <t>sysadmin</t>
+  </si>
+  <si>
+    <t>Ohjelmistosuunnittelija</t>
   </si>
 </sst>
 </file>
@@ -16950,6 +16959,73 @@
         <v>27</v>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="3">
+        <v>44246.61679134259</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E411" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K411" s="2">
+        <v>110000.0</v>
+      </c>
+      <c r="L411" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3">
+        <v>44246.62107894676</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E412" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G412" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H412" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J412" s="2">
+        <v>3800.0</v>
+      </c>
+      <c r="K412" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="L412" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="411">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1238,6 +1238,12 @@
   </si>
   <si>
     <t>Ohjelmistosuunnittelija</t>
+  </si>
+  <si>
+    <t>Senior consultant</t>
+  </si>
+  <si>
+    <t>Sulava</t>
   </si>
 </sst>
 </file>
@@ -17026,6 +17032,85 @@
         <v>27</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="3">
+        <v>44246.625930821756</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E413" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G413" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J413" s="2">
+        <v>3900.0</v>
+      </c>
+      <c r="K413" s="2">
+        <v>52000.0</v>
+      </c>
+      <c r="L413" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3">
+        <v>44246.629239525464</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E414" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G414" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J414" s="2">
+        <v>8500.0</v>
+      </c>
+      <c r="K414" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="L414" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="414">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1244,6 +1244,15 @@
   </si>
   <si>
     <t>Sulava</t>
+  </si>
+  <si>
+    <t>Iso konsulttitalo</t>
+  </si>
+  <si>
+    <t>Sijainti Pori, mutta etätöitä 100%. Varsinainen positio Tampere - Helsinki. Edut aika huonot, perusjutut. Työ itsessään aika masentavaa. Seuraavaksi varmaan freelance/yrittäjyys.</t>
+  </si>
+  <si>
+    <t>Ohjelmistotestaaja</t>
   </si>
 </sst>
 </file>
@@ -17111,6 +17120,88 @@
         <v>410</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="3">
+        <v>44246.6346266551</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E415" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G415" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J415" s="2">
+        <v>5080.0</v>
+      </c>
+      <c r="K415" s="2">
+        <v>65000.0</v>
+      </c>
+      <c r="L415" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M415" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N415" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3">
+        <v>44246.641679224536</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E416" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G416" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J416" s="2">
+        <v>4100.0</v>
+      </c>
+      <c r="K416" s="2">
+        <v>55000.0</v>
+      </c>
+      <c r="L416" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="417">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1253,6 +1253,15 @@
   </si>
   <si>
     <t>Ohjelmistotestaaja</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Full-stack/mobiili/design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavericks </t>
   </si>
 </sst>
 </file>
@@ -17202,6 +17211,85 @@
         <v>19</v>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="3">
+        <v>44246.64923311342</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E417" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G417" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J417" s="2">
+        <v>5550.0</v>
+      </c>
+      <c r="K417" s="2">
+        <v>69400.0</v>
+      </c>
+      <c r="L417" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3">
+        <v>44246.65296685185</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E418" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G418" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J418" s="2">
+        <v>7000.0</v>
+      </c>
+      <c r="K418" s="2">
+        <v>90000.0</v>
+      </c>
+      <c r="L418" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="418">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1262,6 +1262,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mavericks </t>
+  </si>
+  <si>
+    <t>Bonukset riippuu firman tuloksesta. Palkka olisi varmastikin enemmän muualla mutta uskoakseni linjassa kollegoideni kanssa.</t>
   </si>
 </sst>
 </file>
@@ -17290,6 +17293,47 @@
         <v>416</v>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="3">
+        <v>44246.670027175925</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E419" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G419" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J419" s="2">
+        <v>4800.0</v>
+      </c>
+      <c r="K419" s="2">
+        <v>65000.0</v>
+      </c>
+      <c r="L419" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N419" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="424">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1265,6 +1265,24 @@
   </si>
   <si>
     <t>Bonukset riippuu firman tuloksesta. Palkka olisi varmastikin enemmän muualla mutta uskoakseni linjassa kollegoideni kanssa.</t>
+  </si>
+  <si>
+    <t>100%, mutta 1 ylimääräinen palkallinen vapaapäivä per kk</t>
+  </si>
+  <si>
+    <t>Mobile SW</t>
+  </si>
+  <si>
+    <t>Mavericks</t>
+  </si>
+  <si>
+    <t>ohjelmistokehittäjä (backend) / arkkitehti</t>
+  </si>
+  <si>
+    <t>WordPress-kehittäjä</t>
+  </si>
+  <si>
+    <t>Wapice</t>
   </si>
 </sst>
 </file>
@@ -17334,6 +17352,278 @@
         <v>417</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" s="3">
+        <v>44246.678818182874</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E420" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J420" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K420" s="2">
+        <v>56200.0</v>
+      </c>
+      <c r="L420" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3">
+        <v>44246.68510069445</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E421" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G421" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J421" s="2">
+        <v>8000.0</v>
+      </c>
+      <c r="K421" s="2">
+        <v>95000.0</v>
+      </c>
+      <c r="L421" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M421" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3">
+        <v>44246.689904652776</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E422" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G422" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J422" s="2">
+        <v>7000.0</v>
+      </c>
+      <c r="L422" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M422" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3">
+        <v>44246.690365104165</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E423" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G423" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J423" s="2">
+        <v>8000.0</v>
+      </c>
+      <c r="K423" s="2">
+        <v>95000.0</v>
+      </c>
+      <c r="L423" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M423" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3">
+        <v>44246.69231409722</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E424" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G424" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J424" s="2">
+        <v>4700.0</v>
+      </c>
+      <c r="K424" s="2">
+        <v>58750.0</v>
+      </c>
+      <c r="L424" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3">
+        <v>44246.693534756945</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E425" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G425" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I425" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J425" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="K425" s="2">
+        <v>37500.0</v>
+      </c>
+      <c r="L425" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3">
+        <v>44246.693921655096</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E426" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G426" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I426" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J426" s="2">
+        <v>4300.0</v>
+      </c>
+      <c r="K426" s="2">
+        <v>53750.0</v>
+      </c>
+      <c r="M426" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="428">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1283,6 +1283,18 @@
   </si>
   <si>
     <t>Wapice</t>
+  </si>
+  <si>
+    <t>7500+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Software Engineer </t>
+  </si>
+  <si>
+    <t>Frontend ohjelmistokehittäjä</t>
   </si>
 </sst>
 </file>
@@ -17624,6 +17636,158 @@
         <v>423</v>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="3">
+        <v>44246.70005435185</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E427" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G427" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J427" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K427" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="L427" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3">
+        <v>44246.704521886575</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E428" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G428" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J428" s="2">
+        <v>5500.0</v>
+      </c>
+      <c r="K428" s="2">
+        <v>75000.0</v>
+      </c>
+      <c r="L428" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3">
+        <v>44246.71758012731</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E429" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G429" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I429" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J429" s="2">
+        <v>6000.0</v>
+      </c>
+      <c r="K429" s="2">
+        <v>76000.0</v>
+      </c>
+      <c r="L429" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3">
+        <v>44246.74418030093</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E430" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G430" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J430" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="K430" s="2">
+        <v>55000.0</v>
+      </c>
+      <c r="L430" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="429">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1295,6 +1295,9 @@
   </si>
   <si>
     <t>Frontend ohjelmistokehittäjä</t>
+  </si>
+  <si>
+    <t>Tekninen asiantuntija/suunnittelija</t>
   </si>
 </sst>
 </file>
@@ -17788,6 +17791,85 @@
         <v>19</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" s="3">
+        <v>44246.76441186343</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E431" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G431" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I431" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J431" s="2">
+        <v>3250.0</v>
+      </c>
+      <c r="K431" s="2">
+        <v>42000.0</v>
+      </c>
+      <c r="L431" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3">
+        <v>44246.77388896991</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E432" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G432" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I432" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J432" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="K432" s="2">
+        <v>37500.0</v>
+      </c>
+      <c r="L432" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M432" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="445">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1298,6 +1298,54 @@
   </si>
   <si>
     <t>Tekninen asiantuntija/suunnittelija</t>
+  </si>
+  <si>
+    <t>Ful-stack kehittäjä front-end painolla</t>
+  </si>
+  <si>
+    <t>Bitwise Oy</t>
+  </si>
+  <si>
+    <t>Konsultti / Full stack / Tech lead</t>
+  </si>
+  <si>
+    <t>Mavericks Software Oy</t>
+  </si>
+  <si>
+    <t>Fullstack developer</t>
+  </si>
+  <si>
+    <t>93 750</t>
+  </si>
+  <si>
+    <t>Ohjelmistonkehittäjä</t>
+  </si>
+  <si>
+    <t>CTO/Founder/Kooderi</t>
+  </si>
+  <si>
+    <t>Software Architect</t>
+  </si>
+  <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>Konsulttitalo</t>
+  </si>
+  <si>
+    <t>data engineering, team lead</t>
+  </si>
+  <si>
+    <t>Miesnen</t>
+  </si>
+  <si>
+    <t>Sovelluskehittäjä</t>
+  </si>
+  <si>
+    <t>Pieni firma ja paljon hattuja päässä. Palkka on hyvä, mutta ei korvaa stressiä ja painetta.</t>
+  </si>
+  <si>
+    <t>Siili Solutions Oyj</t>
   </si>
 </sst>
 </file>
@@ -17870,6 +17918,1017 @@
         <v>305</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" s="3">
+        <v>44246.79140840277</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E433" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G433" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I433" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J433" s="2">
+        <v>4200.0</v>
+      </c>
+      <c r="K433" s="2">
+        <v>52500.0</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3">
+        <v>44246.80164439815</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E434" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G434" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I434" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J434" s="2">
+        <v>4250.0</v>
+      </c>
+      <c r="K434" s="2">
+        <v>55000.0</v>
+      </c>
+      <c r="L434" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3">
+        <v>44246.82285515046</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E435" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I435" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J435" s="2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3">
+        <v>44246.87332728009</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E436" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G436" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I436" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J436" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="L436" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3">
+        <v>44246.87344513889</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E437" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G437" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I437" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J437" s="2">
+        <v>4250.0</v>
+      </c>
+      <c r="K437" s="2">
+        <v>53000.0</v>
+      </c>
+      <c r="L437" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3">
+        <v>44246.90860390046</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E438" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G438" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J438" s="2">
+        <v>3300.0</v>
+      </c>
+      <c r="K438" s="2">
+        <v>41250.0</v>
+      </c>
+      <c r="L438" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M438" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3">
+        <v>44247.27491872685</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E439" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G439" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J439" s="2">
+        <v>6750.0</v>
+      </c>
+      <c r="K439" s="2">
+        <v>85000.0</v>
+      </c>
+      <c r="L439" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3">
+        <v>44247.349097025464</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E440" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G440" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H440" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I440" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J440" s="2">
+        <v>9300.0</v>
+      </c>
+      <c r="K440" s="2">
+        <v>115000.0</v>
+      </c>
+      <c r="L440" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M440" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3">
+        <v>44247.39400061342</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E441" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G441" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I441" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J441" s="2">
+        <v>4070.0</v>
+      </c>
+      <c r="K441" s="2">
+        <v>50875.0</v>
+      </c>
+      <c r="L441" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3">
+        <v>44247.4519371412</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E442" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G442" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J442" s="2">
+        <v>3200.0</v>
+      </c>
+      <c r="K442" s="2">
+        <v>41000.0</v>
+      </c>
+      <c r="L442" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M442" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3">
+        <v>44247.54319644676</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E443" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G443" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J443" s="2">
+        <v>4850.0</v>
+      </c>
+      <c r="K443" s="2">
+        <v>60500.0</v>
+      </c>
+      <c r="L443" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3">
+        <v>44247.590541377314</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E444" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G444" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H444" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I444" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J444" s="2">
+        <v>7500.0</v>
+      </c>
+      <c r="K444" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L444" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M444" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3">
+        <v>44247.703125405096</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E445" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G445" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J445" s="2">
+        <v>3980.0</v>
+      </c>
+      <c r="L445" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3">
+        <v>44247.75843981482</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E446" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G446" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J446" s="2">
+        <v>12000.0</v>
+      </c>
+      <c r="K446" s="2">
+        <v>300000.0</v>
+      </c>
+      <c r="L446" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3">
+        <v>44247.809785474536</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E447" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K447" s="2">
+        <v>130000.0</v>
+      </c>
+      <c r="L447" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3">
+        <v>44247.87873675926</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E448" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K448" s="2">
+        <v>165000.0</v>
+      </c>
+      <c r="L448" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3">
+        <v>44247.887492106485</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E449" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G449" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J449" s="2">
+        <v>8000.0</v>
+      </c>
+      <c r="K449" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="L449" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M449" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3">
+        <v>44247.95472815972</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E450" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G450" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J450" s="2">
+        <v>3800.0</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3">
+        <v>44248.493042685186</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E451" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G451" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J451" s="2">
+        <v>5100.0</v>
+      </c>
+      <c r="K451" s="2">
+        <v>64000.0</v>
+      </c>
+      <c r="L451" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3">
+        <v>44248.55438332176</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E452" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G452" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J452" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="K452" s="2">
+        <v>62500.0</v>
+      </c>
+      <c r="L452" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M452" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3">
+        <v>44248.71464697916</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E453" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G453" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J453" s="2">
+        <v>5300.0</v>
+      </c>
+      <c r="K453" s="2">
+        <v>71500.0</v>
+      </c>
+      <c r="L453" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3">
+        <v>44248.77370258102</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E454" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G454" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J454" s="2">
+        <v>2600.0</v>
+      </c>
+      <c r="K454" s="2">
+        <v>31200.0</v>
+      </c>
+      <c r="L454" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3">
+        <v>44248.961083877315</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E455" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G455" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J455" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="K455" s="2">
+        <v>85000.0</v>
+      </c>
+      <c r="L455" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3">
+        <v>44249.31470427083</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E456" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G456" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J456" s="2">
+        <v>2400.0</v>
+      </c>
+      <c r="K456" s="2">
+        <v>25000.0</v>
+      </c>
+      <c r="L456" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3">
+        <v>44249.32453216435</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E457" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G457" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J457" s="2">
+        <v>6000.0</v>
+      </c>
+      <c r="K457" s="2">
+        <v>75000.0</v>
+      </c>
+      <c r="L457" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N457" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3">
+        <v>44249.40915908565</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E458" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G458" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J458" s="2">
+        <v>8500.0</v>
+      </c>
+      <c r="K458" s="2">
+        <v>200000.0</v>
+      </c>
+      <c r="L458" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3">
+        <v>44249.418635567126</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E459" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G459" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J459" s="2">
+        <v>3200.0</v>
+      </c>
+      <c r="K459" s="2">
+        <v>40000.0</v>
+      </c>
+      <c r="L459" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M459" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -4,14 +4,18 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet state="hidden" name="Pivot Table 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId6"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="459">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1346,6 +1350,48 @@
   </si>
   <si>
     <t>Siili Solutions Oyj</t>
+  </si>
+  <si>
+    <t>hyvä kysely</t>
+  </si>
+  <si>
+    <t>Wakeone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myynnistä vastaava </t>
+  </si>
+  <si>
+    <t>fullstack-ohjelmistokehittä / arkkitehti / pilviveikko</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Web developer</t>
+  </si>
+  <si>
+    <t>Kokemusta kokonaisuudessaan 7v, mutta siitä reilut kaksi vuotta lasten kanssa kotona koodaamatta.</t>
+  </si>
+  <si>
+    <t>Tuotepäällikkö</t>
+  </si>
+  <si>
+    <t>Lead front end dev</t>
+  </si>
+  <si>
+    <t>harjoittelija</t>
+  </si>
+  <si>
+    <t>Senior Backend Developer</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Values</t>
   </si>
 </sst>
 </file>
@@ -1411,6 +1457,2566 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N468" sheet="Form Responses 1"/>
+  </cacheSource>
+  <cacheFields>
+    <cacheField name="Timestamp" numFmtId="0">
+      <sharedItems containsDate="1" containsString="0" containsBlank="1">
+        <m/>
+        <d v="2021-02-15T11:57:08Z"/>
+        <d v="2021-02-15T11:57:19Z"/>
+        <d v="2021-02-15T11:58:03Z"/>
+        <d v="2021-02-15T11:58:15Z"/>
+        <d v="2021-02-15T11:58:16Z"/>
+        <d v="2021-02-15T11:58:49Z"/>
+        <d v="2021-02-15T12:00:03Z"/>
+        <d v="2021-02-15T12:00:04Z"/>
+        <d v="2021-02-15T12:01:00Z"/>
+        <d v="2021-02-15T12:02:03Z"/>
+        <d v="2021-02-15T12:04:56Z"/>
+        <d v="2021-02-15T12:05:04Z"/>
+        <d v="2021-02-15T12:05:28Z"/>
+        <d v="2021-02-15T12:05:51Z"/>
+        <d v="2021-02-15T12:06:32Z"/>
+        <d v="2021-02-15T12:07:28Z"/>
+        <d v="2021-02-15T12:08:21Z"/>
+        <d v="2021-02-15T12:08:47Z"/>
+        <d v="2021-02-15T12:08:54Z"/>
+        <d v="2021-02-15T12:09:09Z"/>
+        <d v="2021-02-15T12:09:43Z"/>
+        <d v="2021-02-15T12:09:49Z"/>
+        <d v="2021-02-15T12:12:28Z"/>
+        <d v="2021-02-15T12:12:38Z"/>
+        <d v="2021-02-15T12:13:39Z"/>
+        <d v="2021-02-15T12:13:48Z"/>
+        <d v="2021-02-15T12:14:29Z"/>
+        <d v="2021-02-15T12:14:44Z"/>
+        <d v="2021-02-15T12:14:58Z"/>
+        <d v="2021-02-15T12:17:10Z"/>
+        <d v="2021-02-15T12:19:33Z"/>
+        <d v="2021-02-15T12:20:48Z"/>
+        <d v="2021-02-15T12:24:12Z"/>
+        <d v="2021-02-15T12:24:52Z"/>
+        <d v="2021-02-15T12:25:08Z"/>
+        <d v="2021-02-15T12:25:46Z"/>
+        <d v="2021-02-15T12:26:23Z"/>
+        <d v="2021-02-15T12:29:00Z"/>
+        <d v="2021-02-15T12:29:24Z"/>
+        <d v="2021-02-15T12:30:08Z"/>
+        <d v="2021-02-15T12:34:48Z"/>
+        <d v="2021-02-15T12:35:24Z"/>
+        <d v="2021-02-15T12:37:32Z"/>
+        <d v="2021-02-15T12:37:53Z"/>
+        <d v="2021-02-15T12:38:17Z"/>
+        <d v="2021-02-15T12:39:05Z"/>
+        <d v="2021-02-15T12:39:49Z"/>
+        <d v="2021-02-15T12:40:52Z"/>
+        <d v="2021-02-15T12:41:20Z"/>
+        <d v="2021-02-15T12:42:32Z"/>
+        <d v="2021-02-15T12:43:08Z"/>
+        <d v="2021-02-15T12:43:19Z"/>
+        <d v="2021-02-15T12:43:58Z"/>
+        <d v="2021-02-15T12:44:25Z"/>
+        <d v="2021-02-15T12:48:49Z"/>
+        <d v="2021-02-15T12:51:09Z"/>
+        <d v="2021-02-15T12:52:03Z"/>
+        <d v="2021-02-15T12:53:08Z"/>
+        <d v="2021-02-15T12:53:44Z"/>
+        <d v="2021-02-15T12:55:35Z"/>
+        <d v="2021-02-15T12:55:46Z"/>
+        <d v="2021-02-15T12:56:03Z"/>
+        <d v="2021-02-15T12:56:48Z"/>
+        <d v="2021-02-15T12:58:32Z"/>
+        <d v="2021-02-15T12:58:33Z"/>
+        <d v="2021-02-15T12:59:48Z"/>
+        <d v="2021-02-15T13:00:45Z"/>
+        <d v="2021-02-15T13:02:16Z"/>
+        <d v="2021-02-15T13:02:46Z"/>
+        <d v="2021-02-15T13:03:31Z"/>
+        <d v="2021-02-15T13:06:30Z"/>
+        <d v="2021-02-15T13:07:30Z"/>
+        <d v="2021-02-15T13:08:06Z"/>
+        <d v="2021-02-15T13:08:06Z"/>
+        <d v="2021-02-15T13:13:21Z"/>
+        <d v="2021-02-15T13:13:37Z"/>
+        <d v="2021-02-15T13:14:13Z"/>
+        <d v="2021-02-15T13:14:16Z"/>
+        <d v="2021-02-15T13:15:10Z"/>
+        <d v="2021-02-15T13:15:40Z"/>
+        <d v="2021-02-15T13:15:56Z"/>
+        <d v="2021-02-15T13:16:03Z"/>
+        <d v="2021-02-15T13:17:43Z"/>
+        <d v="2021-02-15T13:21:34Z"/>
+        <d v="2021-02-15T13:22:09Z"/>
+        <d v="2021-02-15T13:22:45Z"/>
+        <d v="2021-02-15T13:23:10Z"/>
+        <d v="2021-02-15T13:24:01Z"/>
+        <d v="2021-02-15T13:25:32Z"/>
+        <d v="2021-02-15T13:29:23Z"/>
+        <d v="2021-02-15T13:30:00Z"/>
+        <d v="2021-02-15T13:30:26Z"/>
+        <d v="2021-02-15T13:30:30Z"/>
+        <d v="2021-02-15T13:30:38Z"/>
+        <d v="2021-02-15T13:34:11Z"/>
+        <d v="2021-02-15T13:34:46Z"/>
+        <d v="2021-02-15T13:45:44Z"/>
+        <d v="2021-02-15T13:49:32Z"/>
+        <d v="2021-02-15T13:50:12Z"/>
+        <d v="2021-02-15T13:50:16Z"/>
+        <d v="2021-02-15T13:52:09Z"/>
+        <d v="2021-02-15T13:55:05Z"/>
+        <d v="2021-02-15T13:57:27Z"/>
+        <d v="2021-02-15T13:57:59Z"/>
+        <d v="2021-02-15T13:58:15Z"/>
+        <d v="2021-02-15T14:01:11Z"/>
+        <d v="2021-02-15T14:01:39Z"/>
+        <d v="2021-02-15T14:05:02Z"/>
+        <d v="2021-02-15T14:06:35Z"/>
+        <d v="2021-02-15T14:09:17Z"/>
+        <d v="2021-02-15T14:10:49Z"/>
+        <d v="2021-02-15T14:15:41Z"/>
+        <d v="2021-02-15T14:19:09Z"/>
+        <d v="2021-02-15T14:20:49Z"/>
+        <d v="2021-02-15T14:21:09Z"/>
+        <d v="2021-02-15T14:22:40Z"/>
+        <d v="2021-02-15T14:24:31Z"/>
+        <d v="2021-02-15T14:25:30Z"/>
+        <d v="2021-02-15T14:25:52Z"/>
+        <d v="2021-02-15T14:25:59Z"/>
+        <d v="2021-02-15T14:26:58Z"/>
+        <d v="2021-02-15T14:27:34Z"/>
+        <d v="2021-02-15T14:29:25Z"/>
+        <d v="2021-02-15T14:29:51Z"/>
+        <d v="2021-02-15T14:30:19Z"/>
+        <d v="2021-02-15T14:30:30Z"/>
+        <d v="2021-02-15T14:32:07Z"/>
+        <d v="2021-02-15T14:32:39Z"/>
+        <d v="2021-02-15T14:33:41Z"/>
+        <d v="2021-02-15T14:36:17Z"/>
+        <d v="2021-02-15T14:37:09Z"/>
+        <d v="2021-02-15T14:38:38Z"/>
+        <d v="2021-02-15T14:40:58Z"/>
+        <d v="2021-02-15T14:44:20Z"/>
+        <d v="2021-02-15T14:44:32Z"/>
+        <d v="2021-02-15T14:45:29Z"/>
+        <d v="2021-02-15T14:46:11Z"/>
+        <d v="2021-02-15T14:50:02Z"/>
+        <d v="2021-02-15T14:52:45Z"/>
+        <d v="2021-02-15T14:56:33Z"/>
+        <d v="2021-02-15T14:56:52Z"/>
+        <d v="2021-02-15T14:58:35Z"/>
+        <d v="2021-02-15T15:00:21Z"/>
+        <d v="2021-02-15T15:01:02Z"/>
+        <d v="2021-02-15T15:01:24Z"/>
+        <d v="2021-02-15T15:04:02Z"/>
+        <d v="2021-02-15T15:08:27Z"/>
+        <d v="2021-02-15T15:09:01Z"/>
+        <d v="2021-02-15T15:09:02Z"/>
+        <d v="2021-02-15T15:10:57Z"/>
+        <d v="2021-02-15T15:18:44Z"/>
+        <d v="2021-02-15T15:19:13Z"/>
+        <d v="2021-02-15T15:19:44Z"/>
+        <d v="2021-02-15T15:29:46Z"/>
+        <d v="2021-02-15T15:36:23Z"/>
+        <d v="2021-02-15T15:41:03Z"/>
+        <d v="2021-02-15T15:41:35Z"/>
+        <d v="2021-02-15T15:43:49Z"/>
+        <d v="2021-02-15T15:47:27Z"/>
+        <d v="2021-02-15T15:48:32Z"/>
+        <d v="2021-02-15T15:50:32Z"/>
+        <d v="2021-02-15T15:51:24Z"/>
+        <d v="2021-02-15T15:56:25Z"/>
+        <d v="2021-02-15T15:58:21Z"/>
+        <d v="2021-02-15T16:00:43Z"/>
+        <d v="2021-02-15T16:04:53Z"/>
+        <d v="2021-02-15T16:06:53Z"/>
+        <d v="2021-02-15T16:07:11Z"/>
+        <d v="2021-02-15T16:14:09Z"/>
+        <d v="2021-02-15T16:17:56Z"/>
+        <d v="2021-02-15T16:19:37Z"/>
+        <d v="2021-02-15T16:22:53Z"/>
+        <d v="2021-02-15T16:27:06Z"/>
+        <d v="2021-02-15T16:32:00Z"/>
+        <d v="2021-02-15T16:57:14Z"/>
+        <d v="2021-02-15T16:57:54Z"/>
+        <d v="2021-02-15T16:59:36Z"/>
+        <d v="2021-02-15T17:03:50Z"/>
+        <d v="2021-02-15T17:09:49Z"/>
+        <d v="2021-02-15T17:16:58Z"/>
+        <d v="2021-02-15T17:49:07Z"/>
+        <d v="2021-02-15T17:59:10Z"/>
+        <d v="2021-02-15T18:03:06Z"/>
+        <d v="2021-02-15T18:04:44Z"/>
+        <d v="2021-02-15T18:22:48Z"/>
+        <d v="2021-02-15T18:33:14Z"/>
+        <d v="2021-02-15T18:47:38Z"/>
+        <d v="2021-02-15T18:49:31Z"/>
+        <d v="2021-02-15T19:18:43Z"/>
+        <d v="2021-02-15T19:20:56Z"/>
+        <d v="2021-02-15T19:21:27Z"/>
+        <d v="2021-02-15T19:23:11Z"/>
+        <d v="2021-02-15T19:24:55Z"/>
+        <d v="2021-02-15T19:27:04Z"/>
+        <d v="2021-02-15T19:27:55Z"/>
+        <d v="2021-02-15T19:35:22Z"/>
+        <d v="2021-02-15T19:41:45Z"/>
+        <d v="2021-02-15T19:54:10Z"/>
+        <d v="2021-02-15T20:05:12Z"/>
+        <d v="2021-02-15T20:23:56Z"/>
+        <d v="2021-02-15T20:28:21Z"/>
+        <d v="2021-02-15T20:53:44Z"/>
+        <d v="2021-02-15T20:54:41Z"/>
+        <d v="2021-02-15T20:57:06Z"/>
+        <d v="2021-02-15T21:03:42Z"/>
+        <d v="2021-02-15T21:12:31Z"/>
+        <d v="2021-02-15T21:14:45Z"/>
+        <d v="2021-02-15T21:18:57Z"/>
+        <d v="2021-02-15T21:37:52Z"/>
+        <d v="2021-02-16T00:00:50Z"/>
+        <d v="2021-02-16T07:02:05Z"/>
+        <d v="2021-02-16T08:40:13Z"/>
+        <d v="2021-02-16T08:41:04Z"/>
+        <d v="2021-02-16T08:43:50Z"/>
+        <d v="2021-02-16T09:10:03Z"/>
+        <d v="2021-02-16T09:46:38Z"/>
+        <d v="2021-02-16T10:00:42Z"/>
+        <d v="2021-02-16T10:42:03Z"/>
+        <d v="2021-02-16T10:43:56Z"/>
+        <d v="2021-02-16T10:44:27Z"/>
+        <d v="2021-02-16T10:48:21Z"/>
+        <d v="2021-02-16T10:50:56Z"/>
+        <d v="2021-02-16T11:25:43Z"/>
+        <d v="2021-02-16T11:47:28Z"/>
+        <d v="2021-02-16T12:11:34Z"/>
+        <d v="2021-02-16T13:07:12Z"/>
+        <d v="2021-02-16T13:11:57Z"/>
+        <d v="2021-02-16T13:19:08Z"/>
+        <d v="2021-02-16T13:47:10Z"/>
+        <d v="2021-02-16T14:02:53Z"/>
+        <d v="2021-02-16T15:04:15Z"/>
+        <d v="2021-02-16T15:55:16Z"/>
+        <d v="2021-02-16T16:35:21Z"/>
+        <d v="2021-02-16T17:20:53Z"/>
+        <d v="2021-02-16T17:23:13Z"/>
+        <d v="2021-02-16T17:39:04Z"/>
+        <d v="2021-02-16T17:51:23Z"/>
+        <d v="2021-02-16T18:16:57Z"/>
+        <d v="2021-02-16T18:40:42Z"/>
+        <d v="2021-02-16T19:55:31Z"/>
+        <d v="2021-02-16T21:21:39Z"/>
+        <d v="2021-02-16T21:22:36Z"/>
+        <d v="2021-02-16T21:32:07Z"/>
+        <d v="2021-02-16T21:33:59Z"/>
+        <d v="2021-02-16T21:34:32Z"/>
+        <d v="2021-02-16T23:00:43Z"/>
+        <d v="2021-02-16T23:54:53Z"/>
+        <d v="2021-02-17T07:58:53Z"/>
+        <d v="2021-02-17T08:30:45Z"/>
+        <d v="2021-02-17T08:46:57Z"/>
+        <d v="2021-02-17T09:31:15Z"/>
+        <d v="2021-02-17T09:50:26Z"/>
+        <d v="2021-02-17T10:46:07Z"/>
+        <d v="2021-02-17T14:09:28Z"/>
+        <d v="2021-02-17T17:43:59Z"/>
+        <d v="2021-02-17T20:51:31Z"/>
+        <d v="2021-02-18T00:49:57Z"/>
+        <d v="2021-02-18T10:05:56Z"/>
+        <d v="2021-02-18T11:26:34Z"/>
+        <d v="2021-02-18T19:58:18Z"/>
+        <d v="2021-02-18T20:20:15Z"/>
+        <d v="2021-02-18T20:31:30Z"/>
+        <d v="2021-02-18T20:48:25Z"/>
+        <d v="2021-02-18T22:19:32Z"/>
+        <d v="2021-02-18T22:28:24Z"/>
+        <d v="2021-02-19T08:22:19Z"/>
+        <d v="2021-02-19T09:18:22Z"/>
+        <d v="2021-02-19T10:47:03Z"/>
+        <d v="2021-02-19T10:47:33Z"/>
+        <d v="2021-02-19T10:47:38Z"/>
+        <d v="2021-02-19T10:47:50Z"/>
+        <d v="2021-02-19T10:47:54Z"/>
+        <d v="2021-02-19T10:47:57Z"/>
+        <d v="2021-02-19T10:48:00Z"/>
+        <d v="2021-02-19T10:48:06Z"/>
+        <d v="2021-02-19T10:48:16Z"/>
+        <d v="2021-02-19T10:48:31Z"/>
+        <d v="2021-02-19T10:48:51Z"/>
+        <d v="2021-02-19T10:48:52Z"/>
+        <d v="2021-02-19T10:48:52Z"/>
+        <d v="2021-02-19T10:48:57Z"/>
+        <d v="2021-02-19T10:48:59Z"/>
+        <d v="2021-02-19T10:49:25Z"/>
+        <d v="2021-02-19T10:49:39Z"/>
+        <d v="2021-02-19T10:49:40Z"/>
+        <d v="2021-02-19T10:49:47Z"/>
+        <d v="2021-02-19T10:49:53Z"/>
+        <d v="2021-02-19T10:50:06Z"/>
+        <d v="2021-02-19T10:50:31Z"/>
+        <d v="2021-02-19T10:50:36Z"/>
+        <d v="2021-02-19T10:50:39Z"/>
+        <d v="2021-02-19T10:50:42Z"/>
+        <d v="2021-02-19T10:51:11Z"/>
+        <d v="2021-02-19T10:51:14Z"/>
+        <d v="2021-02-19T10:51:15Z"/>
+        <d v="2021-02-19T10:51:32Z"/>
+        <d v="2021-02-19T10:51:42Z"/>
+        <d v="2021-02-19T10:51:44Z"/>
+        <d v="2021-02-19T10:51:45Z"/>
+        <d v="2021-02-19T10:52:08Z"/>
+        <d v="2021-02-19T10:52:19Z"/>
+        <d v="2021-02-19T10:52:52Z"/>
+        <d v="2021-02-19T10:52:55Z"/>
+        <d v="2021-02-19T10:53:07Z"/>
+        <d v="2021-02-19T10:53:21Z"/>
+        <d v="2021-02-19T10:53:36Z"/>
+        <d v="2021-02-19T10:53:45Z"/>
+        <d v="2021-02-19T10:53:51Z"/>
+        <d v="2021-02-19T10:54:19Z"/>
+        <d v="2021-02-19T10:54:27Z"/>
+        <d v="2021-02-19T10:54:29Z"/>
+        <d v="2021-02-19T10:54:42Z"/>
+        <d v="2021-02-19T10:54:54Z"/>
+        <d v="2021-02-19T10:54:56Z"/>
+        <d v="2021-02-19T10:54:57Z"/>
+        <d v="2021-02-19T10:55:40Z"/>
+        <d v="2021-02-19T10:56:22Z"/>
+        <d v="2021-02-19T10:56:38Z"/>
+        <d v="2021-02-19T10:57:04Z"/>
+        <d v="2021-02-19T10:57:17Z"/>
+        <d v="2021-02-19T10:57:21Z"/>
+        <d v="2021-02-19T10:58:08Z"/>
+        <d v="2021-02-19T10:58:38Z"/>
+        <d v="2021-02-19T10:58:50Z"/>
+        <d v="2021-02-19T10:59:37Z"/>
+        <d v="2021-02-19T10:59:45Z"/>
+        <d v="2021-02-19T10:59:57Z"/>
+        <d v="2021-02-19T11:00:02Z"/>
+        <d v="2021-02-19T11:00:58Z"/>
+        <d v="2021-02-19T11:01:19Z"/>
+        <d v="2021-02-19T11:01:21Z"/>
+        <d v="2021-02-19T11:03:10Z"/>
+        <d v="2021-02-19T11:03:26Z"/>
+        <d v="2021-02-19T11:04:33Z"/>
+        <d v="2021-02-19T11:06:02Z"/>
+        <d v="2021-02-19T11:06:55Z"/>
+        <d v="2021-02-19T11:07:09Z"/>
+        <d v="2021-02-19T11:08:52Z"/>
+        <d v="2021-02-19T11:11:15Z"/>
+        <d v="2021-02-19T11:11:46Z"/>
+        <d v="2021-02-19T11:12:19Z"/>
+        <d v="2021-02-19T11:12:29Z"/>
+        <d v="2021-02-19T11:13:49Z"/>
+        <d v="2021-02-19T11:15:29Z"/>
+        <d v="2021-02-19T11:15:34Z"/>
+        <d v="2021-02-19T11:15:45Z"/>
+        <d v="2021-02-19T11:16:13Z"/>
+        <d v="2021-02-19T11:17:21Z"/>
+        <d v="2021-02-19T11:19:31Z"/>
+        <d v="2021-02-19T11:19:51Z"/>
+        <d v="2021-02-19T11:21:22Z"/>
+        <d v="2021-02-19T11:22:05Z"/>
+        <d v="2021-02-19T11:22:11Z"/>
+        <d v="2021-02-19T11:22:16Z"/>
+        <d v="2021-02-19T11:23:09Z"/>
+        <d v="2021-02-19T11:24:28Z"/>
+        <d v="2021-02-19T11:26:29Z"/>
+        <d v="2021-02-19T11:28:49Z"/>
+        <d v="2021-02-19T11:32:35Z"/>
+        <d v="2021-02-19T11:33:51Z"/>
+        <d v="2021-02-19T11:35:16Z"/>
+        <d v="2021-02-19T11:35:42Z"/>
+        <d v="2021-02-19T11:37:37Z"/>
+        <d v="2021-02-19T11:38:57Z"/>
+        <d v="2021-02-19T11:39:37Z"/>
+        <d v="2021-02-19T11:40:23Z"/>
+        <d v="2021-02-19T11:40:54Z"/>
+        <d v="2021-02-19T11:42:21Z"/>
+        <d v="2021-02-19T11:43:01Z"/>
+        <d v="2021-02-19T11:44:32Z"/>
+        <d v="2021-02-19T11:46:19Z"/>
+        <d v="2021-02-19T11:46:37Z"/>
+        <d v="2021-02-19T11:48:23Z"/>
+        <d v="2021-02-19T11:48:59Z"/>
+        <d v="2021-02-19T12:02:00Z"/>
+        <d v="2021-02-19T12:07:20Z"/>
+        <d v="2021-02-19T12:09:16Z"/>
+        <d v="2021-02-19T12:12:31Z"/>
+        <d v="2021-02-19T12:13:35Z"/>
+        <d v="2021-02-19T12:15:19Z"/>
+        <d v="2021-02-19T12:17:31Z"/>
+        <d v="2021-02-19T12:18:30Z"/>
+        <d v="2021-02-19T12:18:40Z"/>
+        <d v="2021-02-19T12:18:44Z"/>
+        <d v="2021-02-19T12:20:02Z"/>
+        <d v="2021-02-19T12:23:48Z"/>
+        <d v="2021-02-19T12:24:08Z"/>
+        <d v="2021-02-19T12:24:43Z"/>
+        <d v="2021-02-19T12:24:52Z"/>
+        <d v="2021-02-19T12:31:56Z"/>
+        <d v="2021-02-19T12:39:49Z"/>
+        <d v="2021-02-19T12:40:21Z"/>
+        <d v="2021-02-19T12:43:39Z"/>
+        <d v="2021-02-19T12:53:17Z"/>
+        <d v="2021-02-19T12:57:05Z"/>
+        <d v="2021-02-19T13:15:05Z"/>
+        <d v="2021-02-19T13:15:21Z"/>
+        <d v="2021-02-19T13:40:39Z"/>
+        <d v="2021-02-19T13:58:13Z"/>
+        <d v="2021-02-19T14:00:53Z"/>
+        <d v="2021-02-19T14:07:49Z"/>
+        <d v="2021-02-19T14:10:25Z"/>
+        <d v="2021-02-19T14:11:59Z"/>
+        <d v="2021-02-19T14:28:37Z"/>
+        <d v="2021-02-19T14:40:40Z"/>
+        <d v="2021-02-19T14:42:01Z"/>
+        <d v="2021-02-19T14:42:49Z"/>
+        <d v="2021-02-19T14:44:18Z"/>
+        <d v="2021-02-19T14:48:10Z"/>
+        <d v="2021-02-19T14:54:21Z"/>
+        <d v="2021-02-19T15:01:20Z"/>
+        <d v="2021-02-19T15:06:06Z"/>
+        <d v="2021-02-19T15:13:51Z"/>
+        <d v="2021-02-19T15:24:01Z"/>
+        <d v="2021-02-19T15:34:53Z"/>
+        <d v="2021-02-19T15:40:16Z"/>
+        <d v="2021-02-19T16:04:50Z"/>
+        <d v="2021-02-19T16:17:29Z"/>
+        <d v="2021-02-19T16:26:32Z"/>
+        <d v="2021-02-19T16:33:27Z"/>
+        <d v="2021-02-19T16:34:07Z"/>
+        <d v="2021-02-19T16:36:55Z"/>
+        <d v="2021-02-19T16:38:41Z"/>
+        <d v="2021-02-19T16:39:14Z"/>
+        <d v="2021-02-19T16:48:04Z"/>
+        <d v="2021-02-19T16:54:30Z"/>
+        <d v="2021-02-19T17:13:18Z"/>
+        <d v="2021-02-19T17:51:37Z"/>
+        <d v="2021-02-19T18:20:45Z"/>
+        <d v="2021-02-19T18:34:24Z"/>
+        <d v="2021-02-19T18:59:37Z"/>
+        <d v="2021-02-19T19:14:22Z"/>
+        <d v="2021-02-19T19:44:54Z"/>
+        <d v="2021-02-19T20:57:35Z"/>
+        <d v="2021-02-19T20:57:45Z"/>
+        <d v="2021-02-19T21:48:23Z"/>
+        <d v="2021-02-20T06:35:52Z"/>
+        <d v="2021-02-20T08:22:41Z"/>
+        <d v="2021-02-20T09:27:21Z"/>
+        <d v="2021-02-20T10:50:47Z"/>
+        <d v="2021-02-20T13:02:12Z"/>
+        <d v="2021-02-20T14:10:22Z"/>
+        <d v="2021-02-20T16:52:30Z"/>
+        <d v="2021-02-20T18:12:09Z"/>
+        <d v="2021-02-20T19:26:05Z"/>
+        <d v="2021-02-20T21:05:22Z"/>
+        <d v="2021-02-20T21:17:59Z"/>
+        <d v="2021-02-20T22:54:48Z"/>
+        <d v="2021-02-21T11:49:58Z"/>
+        <d v="2021-02-21T13:18:18Z"/>
+        <d v="2021-02-21T17:09:05Z"/>
+        <d v="2021-02-21T18:34:07Z"/>
+        <d v="2021-02-21T23:03:57Z"/>
+        <d v="2021-02-22T07:33:10Z"/>
+        <d v="2021-02-22T07:47:19Z"/>
+        <d v="2021-02-22T09:49:11Z"/>
+        <d v="2021-02-22T10:02:50Z"/>
+        <d v="2021-02-22T10:36:42Z"/>
+        <d v="2021-02-22T11:03:33Z"/>
+        <d v="2021-02-22T11:05:29Z"/>
+        <d v="2021-02-22T12:44:27Z"/>
+        <d v="2021-02-22T12:44:41Z"/>
+        <d v="2021-02-22T12:49:30Z"/>
+        <d v="2021-02-22T12:51:26Z"/>
+        <d v="2021-02-22T12:54:08Z"/>
+        <d v="2021-02-22T13:03:17Z"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Missä kaupungissa työpaikkasi pääasiallinen toimisto sijaitsee?" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="PK-Seutu (Helsinki, Espoo, Vantaa)"/>
+        <s v="Turku"/>
+        <s v="Tampere"/>
+        <s v="Tallinna"/>
+        <s v="Jyväskylä"/>
+        <s v="Oulu"/>
+        <s v="Etelä-Karjala"/>
+        <s v="Wien"/>
+        <s v="Lontoo"/>
+        <s v="Kuopio"/>
+        <s v="Vaasa"/>
+        <s v="Joensuu"/>
+        <s v="Europe"/>
+        <s v="Lahti"/>
+        <s v="Kouvola"/>
+        <s v="Hämeenlinna"/>
+        <s v="Pohjanmaan alue"/>
+        <s v="Ruotsi"/>
+        <s v="Kälviä"/>
+        <s v="Pori"/>
+        <s v="San Francisco"/>
+        <s v="Länsi-Suomi"/>
+        <s v="New York, etänä"/>
+        <s v="EU"/>
+        <s v="Viimsi"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ikä" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="30-35 v"/>
+        <s v="26-30 v"/>
+        <s v="41-45 v"/>
+        <s v="36-40 v"/>
+        <s v="31-35 v"/>
+        <s v="21-25 v"/>
+        <s v="46-50 v"/>
+        <s v="51-55 v"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sukupuoli" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="mies"/>
+        <s v="M"/>
+        <s v="undefined is not an object"/>
+        <s v="Nainen"/>
+        <s v="miäs"/>
+        <s v="Uros"/>
+        <s v="Muu"/>
+        <s v="Mies/se/hän"/>
+        <s v="[object Object]"/>
+        <s v="äiä"/>
+        <s v="Taisteluhelikopteri"/>
+        <s v="Male"/>
+        <s v="on"/>
+        <s v="Ei niitä ole enää"/>
+        <s v="Helikopteri"/>
+        <s v="?"/>
+        <s v="Mies "/>
+        <s v="Miesnen"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Työkokemus">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1">
+        <m/>
+        <n v="10.0"/>
+        <n v="14.0"/>
+        <n v="2.0"/>
+        <n v="22.0"/>
+        <n v="23.0"/>
+        <n v="6.0"/>
+        <n v="12.0"/>
+        <n v="11.0"/>
+        <n v="9.0"/>
+        <n v="15.0"/>
+        <n v="16.0"/>
+        <n v="1.0"/>
+        <n v="7.0"/>
+        <n v="3.0"/>
+        <n v="4.0"/>
+        <n v="20.0"/>
+        <n v="8.0"/>
+        <n v="5.0"/>
+        <n v="17.0"/>
+        <n v="13.0"/>
+        <n v="19.0"/>
+        <n v="21.0"/>
+        <n v="25.0"/>
+        <n v="18.0"/>
+        <n v="0.0"/>
+        <n v="24.0"/>
+        <s v="+20"/>
+        <n v="30.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Työsuhteen luonne" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Työntekijä / palkollinen"/>
+        <s v="Yrittäjä"/>
+        <s v="Freelancer"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Työaika (jos työsuhteessa)">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1">
+        <m/>
+        <n v="1.0"/>
+        <n v="40.0"/>
+        <n v="0.8"/>
+        <n v="0.7"/>
+        <n v="0.6"/>
+        <n v="0.5"/>
+        <s v="100%, mutta 1 ylimääräinen palkallinen vapaapäivä per kk"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rooli" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Arkkitehti"/>
+        <s v="full-stack"/>
+        <s v="Full-stack ohjelmistokehittäjä"/>
+        <s v="web-arkkitehti"/>
+        <s v="Ohjelmistokehittäjä"/>
+        <s v="Lead developer"/>
+        <s v="Tekninen projektipäällikkö"/>
+        <s v="Senior front-end developer"/>
+        <s v="Devops specialist"/>
+        <s v="CTO/digidigikehitysjohtaja"/>
+        <s v="Full stack developer"/>
+        <s v="Backend developer"/>
+        <s v="full-stack, project manager"/>
+        <s v="Integration Developer"/>
+        <s v="Koodari"/>
+        <s v="Developer / cloud specialist"/>
+        <s v="CTO"/>
+        <s v="Vanhempi ohjelmistokehittäjä"/>
+        <s v="CTO eli kakkkea"/>
+        <s v="Data Developer"/>
+        <s v="Pilvihommia"/>
+        <s v="Vanhempi ohjelmistosuunnittelija"/>
+        <s v="full-stack / lead developer"/>
+        <s v="Cloud Architect"/>
+        <s v="Full stack ohjelmistokehittaja"/>
+        <s v="ohjelmistokehittäjä (full-stack)"/>
+        <s v="ohjelmistokehittäjä, full-stack"/>
+        <s v="Full-stack, arkkitehti"/>
+        <s v="Pilviarkkitehti"/>
+        <s v="arkkitehti, full-stack-kehittäjä"/>
+        <s v="CIO"/>
+        <s v="Senior Software Developer"/>
+        <s v="UX-suunnittelija"/>
+        <s v="cloud specialist"/>
+        <s v="Full-stack devaaja, milloin mitäkin"/>
+        <s v="Full-stack kehittäjä"/>
+        <s v="devops guy"/>
+        <s v="ohjelmistokehittäjä, senior, full-stack"/>
+        <s v="Cloud architext"/>
+        <s v="Testiautomaatiokonsultti"/>
+        <s v="Ohjelmistoarkkitehti"/>
+        <s v="Full-stack developer"/>
+        <s v="Software Engineer"/>
+        <s v="Senior software designer"/>
+        <s v="Johtaja"/>
+        <s v="ohjelmistokehittäjä (full-stack) &amp; rekrymarkkinointi"/>
+        <s v="Full-stack dev konsultti"/>
+        <s v="full-stack-kehittäjä, arkkitehti"/>
+        <s v="ohjelmistokehittäjä / -arkkitehti"/>
+        <s v="seniori automaatio säätäjä"/>
+        <s v="ohjelmistkoehittäjä, full-stack"/>
+        <s v="Dev lead"/>
+        <s v="Infra/pilvi/SRE"/>
+        <s v="QA testaaja, tuki"/>
+        <s v="Ohjelmistokehittäjä (mobile)"/>
+        <s v="Full stack ohjelmistokehittäjä"/>
+        <s v="Frontend, full-stack"/>
+        <s v="Mobiili"/>
+        <s v="Senior Fullstack Developer"/>
+        <s v="Senior Software Engineer"/>
+        <s v="Senior developer"/>
+        <s v="Konsultoiva ohjelmistokehittäjä, kirjailija ja tapahtumanjärjestäjä"/>
+        <s v="Mobile developer"/>
+        <s v="Frontend-ohjelmistokehittäjä (mobiili)"/>
+        <s v="sr data scientist"/>
+        <s v="DevSecOps specialist"/>
+        <s v="Po"/>
+        <s v="Scrum Master"/>
+        <s v="Mobiilikehittäjä"/>
+        <s v="DevOps"/>
+        <s v=" ohjelmistokehittäjä (full-stack, web)"/>
+        <s v="Software Developer"/>
+        <s v="backend, sysadmin, arkkitehti"/>
+        <s v="Web Developer"/>
+        <s v="Full-stack dev"/>
+        <s v="Senior Frontend Developer"/>
+        <s v="Tekninen liidi"/>
+        <s v="Product Owner"/>
+        <s v="fullstack"/>
+        <s v="Senior SW developer (fullstack)"/>
+        <s v="Ohjelmistokehittäjä full-stack"/>
+        <s v="ohjelmistokehittäjä, front + vähän back"/>
+        <s v="kooder"/>
+        <s v="full-stack developer konsultti"/>
+        <s v="Vanhempi ohjelmistosuunnittelija, fullstack"/>
+        <s v="Kehittäjä/arkkitehti"/>
+        <s v="Projektipäällikkö"/>
+        <s v="Ohjelmistokehittäjä, web, front-end feat. full-stack"/>
+        <s v="full-stack/mobiili"/>
+        <s v="Frontend"/>
+        <s v="ohjelmoija, backend, data, tekoäly "/>
+        <s v="Tech Lead, arkkitehti, DevOps, full-stack, perus konsultti"/>
+        <s v="tekninen suunnittelija / full-stack"/>
+        <s v="Full-stack / Scrum Master"/>
+        <s v="Full stack"/>
+        <s v="Developer"/>
+        <s v="Drupal Developer"/>
+        <s v="Tekki manageri"/>
+        <s v="ohjelmoija"/>
+        <s v="Team Lead"/>
+        <s v="Fronttikoodari"/>
+        <s v="frontend developer"/>
+        <s v="Tech Lead"/>
+        <s v="UI-Suunnittelija / Frontti kehittäjä"/>
+        <s v="Ohjelmisto kehittäjä"/>
+        <s v="Ohjelmistokehittäjä (frontend)"/>
+        <s v="Chief Experience Officer"/>
+        <s v="Koodaava projektipäällikkö"/>
+        <s v="Fullstack kehittäjä"/>
+        <s v="Data scientist"/>
+        <s v="asiantuntija"/>
+        <s v="Full-Stack kehittäjä + projektinvetovastuuta"/>
+        <s v="Ohjelmistoyrittäjä"/>
+        <s v="Suurarkkitehti"/>
+        <s v="Solution Architect"/>
+        <s v="full-stack + projektivastuuta"/>
+        <s v="Lead developer (full stack)"/>
+        <s v="Rails / Raspberry / Android "/>
+        <s v="Full-stack / arkkitehti / tekninen myynti"/>
+        <s v="Full-stack koodari"/>
+        <s v="Front-end / full-stack ohjelmistokehittäjä"/>
+        <s v="Full-stack, backend painotuksella"/>
+        <s v="devops-konsultti"/>
+        <s v="Ohjelmistokehittäjä, backend"/>
+        <s v="founderi, ohjelmistoinsinööri"/>
+        <s v="Ohjelmistokehittäjä / -konsultti (frontend)"/>
+        <s v="Junior frontend engineer"/>
+        <s v="Koodi Ukkelli"/>
+        <s v="full-stack + firman pyöritykseen liittyvää"/>
+        <s v="Ohejlmistokehittäjä (full-stack)"/>
+        <s v="ohjelmistotestaus"/>
+        <s v="Cloud"/>
+        <s v="lead dev"/>
+        <s v="Front-end"/>
+        <s v="Ohjelmistokehittäjä (frontend + mobiili)"/>
+        <s v="Full-stack + devops + risat"/>
+        <s v="Engineering team lead"/>
+        <s v="Back-end enimmäkseen, mutta pieni organisaatio niin kaikkea"/>
+        <s v="kehittäjä"/>
+        <s v="Solution Developer"/>
+        <s v="Full stack dev/cto"/>
+        <s v="Full-stack "/>
+        <s v="sovelluskehitysharjoittelija"/>
+        <s v="Full-stack kehittäjä, rekrytointi, projektipäällikkö"/>
+        <s v="frontend ohjelmistokehittäjä"/>
+        <s v="Team lead / front&amp;backend"/>
+        <s v="Senior developer, tech lead"/>
+        <s v="Fronttidevaaja"/>
+        <s v="Ohjelmistokehittäjä "/>
+        <s v="Frontend/full-stack"/>
+        <s v="ohjelmistokehittäjä, datainsinööri"/>
+        <s v="Lead"/>
+        <s v="Konsultti"/>
+        <s v="Jotain muuta"/>
+        <s v="Full-stack-kehittäjä/ops (tittelinä lead developer)"/>
+        <s v="Sovellusasiantuntija"/>
+        <s v="Full-stack / senior"/>
+        <s v="Technical Lead"/>
+        <s v="Ohjelmistokehittäjä/Projektiliidi"/>
+        <s v="Ohjelmistotiimin vetäjä"/>
+        <s v="project manager"/>
+        <s v="backend"/>
+        <s v="Ohjelmistokehitys konsultointityönä, backend"/>
+        <s v="Team lead frontend"/>
+        <s v="Arkkitehti / lead dev / konsultti"/>
+        <s v="toimitusjohtaja, projektipäällikkö, full-stack"/>
+        <s v="DevOps konsultti"/>
+        <s v="Full-stack developer / project lead"/>
+        <s v="Ohjelmistokehittäjä (full-stack), arkkitehti"/>
+        <s v="Full-Stack Software Engineer"/>
+        <s v="Ohjelmistokehitysjohtaja"/>
+        <s v="DevSecOps"/>
+        <s v="Vastuullinen arkkitehti"/>
+        <s v="Designer"/>
+        <s v="Ohjelmistokehittäjä (full stack, konsultti)"/>
+        <s v="Backend, pilvi-infra"/>
+        <s v="Toimitusjohtaja"/>
+        <s v="QA"/>
+        <s v="full-stack ohjelmistokehittäjä/arkkitehti"/>
+        <s v="senior backend dev"/>
+        <s v="Machine Learning Engineer"/>
+        <s v="Full-stack developer + product roles"/>
+        <s v="Team Leader"/>
+        <s v="DevOps, Cloud Architect"/>
+        <s v="Full-stack softwar e engineer"/>
+        <s v="arkkitehti / tech advisor"/>
+        <s v="CTO, esimies, yrittäjä, full-stack kehittäjä ja arkkitehti"/>
+        <s v="Data-arkkitehti"/>
+        <s v="full stack developer, architect, lead"/>
+        <s v="Ohjelmistokehittäjä (mobiili)"/>
+        <s v="Senior Software Engineer (Backend)"/>
+        <s v="WordPress / Frontend-koodari"/>
+        <s v="Frontend &amp; UX"/>
+        <s v="Full-stack ohjelmistokehittäjä (junior)"/>
+        <s v="sysadmin"/>
+        <s v="Ohjelmistosuunnittelija"/>
+        <s v="Senior consultant"/>
+        <s v="Ohjelmistotestaaja"/>
+        <s v="Full-stack/mobiili/design"/>
+        <s v="Mobile SW"/>
+        <s v="ohjelmistokehittäjä (backend) / arkkitehti"/>
+        <s v="WordPress-kehittäjä"/>
+        <s v="Lead Software Engineer "/>
+        <s v="Tekninen asiantuntija/suunnittelija"/>
+        <s v="Ful-stack kehittäjä front-end painolla"/>
+        <s v="Konsultti / Full stack / Tech lead"/>
+        <s v="Fullstack developer"/>
+        <s v="Ohjelmistonkehittäjä"/>
+        <s v="CTO/Founder/Kooderi"/>
+        <s v="Software Architect"/>
+        <s v="data engineering, team lead"/>
+        <s v="Sovelluskehittäjä"/>
+        <s v="Myynnistä vastaava "/>
+        <s v="fullstack-ohjelmistokehittä / arkkitehti / pilviveikko"/>
+        <s v="Tuotepäällikkö"/>
+        <s v="Lead front end dev"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Etänä vai paikallisesti?" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Noin 50/50 hybridimalli"/>
+        <s v="Pääosin tai kokonaan etätyö"/>
+        <s v="Pääosin tai kokonaan toimistolla"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Kuukausipalkka (jos työntekijä) (brutto)">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1">
+        <m/>
+        <n v="6500.0"/>
+        <n v="5000.0"/>
+        <n v="2475.0"/>
+        <n v="4300.0"/>
+        <n v="3000.0"/>
+        <n v="8000.0"/>
+        <n v="6000.0"/>
+        <n v="4250.0"/>
+        <n v="4000.0"/>
+        <n v="3550.0"/>
+        <n v="6100.0"/>
+        <n v="4500.0"/>
+        <n v="7000.0"/>
+        <n v="5100.0"/>
+        <n v="5900.0"/>
+        <n v="4100.0"/>
+        <n v="2500.0"/>
+        <n v="3500.0"/>
+        <n v="3791.0"/>
+        <n v="3700.0"/>
+        <n v="4800.0"/>
+        <n v="1700.0"/>
+        <n v="4850.0"/>
+        <n v="4167.0"/>
+        <n v="5250.0"/>
+        <s v="5500 (tai 6900 jos osuu on-call -viikko kuukaudelle)"/>
+        <n v="5200.0"/>
+        <n v="5060.0"/>
+        <n v="5400.0"/>
+        <n v="3800.0"/>
+        <n v="2960.0"/>
+        <n v="4230.0"/>
+        <n v="5700.0"/>
+        <n v="4150.0"/>
+        <n v="4720.0"/>
+        <n v="4275.0"/>
+        <n v="4200.0"/>
+        <n v="4350.0"/>
+        <n v="4600.0"/>
+        <n v="6200.0"/>
+        <n v="5800.0"/>
+        <n v="2465.0"/>
+        <n v="4450.0"/>
+        <n v="5300.0"/>
+        <n v="3040.0"/>
+        <n v="3900.0"/>
+        <n v="3350.0"/>
+        <n v="3300.0"/>
+        <n v="5500.0"/>
+        <n v="3970.0"/>
+        <n v="3160.0"/>
+        <n v="6800.0"/>
+        <n v="6600.0"/>
+        <n v="4700.0"/>
+        <n v="4860.0"/>
+        <n v="2600.0"/>
+        <s v="2000-3400"/>
+        <n v="4750.0"/>
+        <n v="1666.0"/>
+        <n v="3360.0"/>
+        <n v="3200.0"/>
+        <n v="5040.0"/>
+        <n v="6956.0"/>
+        <n v="5750.0"/>
+        <n v="6300.0"/>
+        <n v="3264.0"/>
+        <n v="4400.0"/>
+        <n v="4900.0"/>
+        <n v="4888.0"/>
+        <n v="3340.0"/>
+        <n v="3600.0"/>
+        <n v="6120.0"/>
+        <n v="6350.0"/>
+        <n v="4140.0"/>
+        <n v="7200.0"/>
+        <n v="4020.0"/>
+        <n v="5600.0"/>
+        <n v="4060.0"/>
+        <n v="3400.0"/>
+        <n v="3750.0"/>
+        <n v="6250.0"/>
+        <n v="3100.0"/>
+        <n v="7500.0"/>
+        <n v="3590.0"/>
+        <n v="2850.0"/>
+        <n v="5065.0"/>
+        <n v="5168.0"/>
+        <n v="4050.0"/>
+        <n v="2800.0"/>
+        <n v="4080.0"/>
+        <n v="2820.0"/>
+        <n v="2275.0"/>
+        <n v="5236.0"/>
+        <n v="4747.0"/>
+        <n v="1800.0"/>
+        <n v="3950.0"/>
+        <n v="3410.0"/>
+        <n v="3725.0"/>
+        <n v="2900.0"/>
+        <n v="2300.0"/>
+        <n v="2100.0"/>
+        <n v="6700.0"/>
+        <n v="15000.0"/>
+        <n v="3250.0"/>
+        <n v="2400.0"/>
+        <n v="2770.0"/>
+        <n v="5566.0"/>
+        <n v="4650.0"/>
+        <n v="2700.0"/>
+        <n v="3850.0"/>
+        <n v="5850.0"/>
+        <n v="3744.0"/>
+        <n v="3220.0"/>
+        <n v="4155.0"/>
+        <n v="5470.0"/>
+        <n v="6400.0"/>
+        <n v="8500.0"/>
+        <n v="5080.0"/>
+        <n v="5550.0"/>
+        <s v="7500+"/>
+        <n v="6750.0"/>
+        <n v="9300.0"/>
+        <n v="4070.0"/>
+        <n v="3980.0"/>
+        <n v="12000.0"/>
+        <n v="3858.0"/>
+        <n v="8200.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vuositulot (sis. bonukset, osingot yms) / Vuosilaskutus (jos laskutat)">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1">
+        <m/>
+        <n v="83000.0"/>
+        <n v="62500.0"/>
+        <n v="30000.0"/>
+        <n v="100000.0"/>
+        <n v="37500.0"/>
+        <n v="140000.0"/>
+        <n v="54000.0"/>
+        <n v="50000.0"/>
+        <n v="200000.0"/>
+        <s v="44 375"/>
+        <n v="77000.0"/>
+        <n v="57000.0"/>
+        <n v="90000.0"/>
+        <n v="56250.0"/>
+        <n v="73500.0"/>
+        <n v="120000.0"/>
+        <n v="65000.0"/>
+        <n v="80000.0"/>
+        <n v="55000.0"/>
+        <n v="31250.0"/>
+        <n v="43750.0"/>
+        <n v="0.0"/>
+        <n v="60000.0"/>
+        <n v="135000.0"/>
+        <n v="22000.0"/>
+        <s v="~78 000 (on-call -lisät n. joka toinen kuukausi)"/>
+        <n v="51000.0"/>
+        <n v="69000.0"/>
+        <n v="74000.0"/>
+        <n v="67500.0"/>
+        <n v="47500.0"/>
+        <n v="46250.0"/>
+        <n v="37000.0"/>
+        <n v="62000.0"/>
+        <n v="53000.0"/>
+        <n v="115000.0"/>
+        <n v="82000.0"/>
+        <n v="51875.0"/>
+        <n v="56000.0"/>
+        <n v="68900.0"/>
+        <n v="68000.0"/>
+        <s v="52 000"/>
+        <n v="48000.0"/>
+        <n v="58500.0"/>
+        <n v="54375.0"/>
+        <s v="~62k"/>
+        <n v="57500.0"/>
+        <n v="78000.0"/>
+        <n v="75000.0"/>
+        <n v="35000.0"/>
+        <n v="52500.0"/>
+        <n v="72000.0"/>
+        <n v="53200.0"/>
+        <n v="67000.0"/>
+        <n v="58000.0"/>
+        <n v="125000.0"/>
+        <n v="44000.0"/>
+        <n v="48900.0"/>
+        <n v="66000.0"/>
+        <n v="40000.0"/>
+        <n v="51200.0"/>
+        <n v="85000.0"/>
+        <n v="70000.0"/>
+        <n v="58750.0"/>
+        <n v="77500.0"/>
+        <s v="60 750"/>
+        <n v="68750.0"/>
+        <s v="2600*12,5"/>
+        <n v="32600.0"/>
+        <n v="72500.0"/>
+        <s v="~80000"/>
+        <s v=" "/>
+        <n v="59000.0"/>
+        <s v="160000 (sis ALV 24%)"/>
+        <n v="42000.0"/>
+        <n v="86950.0"/>
+        <n v="79000.0"/>
+        <n v="7500.0"/>
+        <s v="186000 ALV24%"/>
+        <n v="61250.0"/>
+        <n v="6100.0"/>
+        <n v="41750.0"/>
+        <n v="180000.0"/>
+        <n v="45000.0"/>
+        <s v="80 500"/>
+        <n v="64500.0"/>
+        <n v="51500.0"/>
+        <n v="4000.0"/>
+        <n v="51750.0"/>
+        <n v="250000.0"/>
+        <n v="57600.0"/>
+        <n v="190000.0"/>
+        <n v="50200.0"/>
+        <n v="46300.0"/>
+        <n v="52000.0"/>
+        <n v="150000.0"/>
+        <n v="42500.0"/>
+        <n v="137800.0"/>
+        <n v="50700.0"/>
+        <n v="47000.0"/>
+        <n v="78125.0"/>
+        <n v="67200.0"/>
+        <n v="64000.0"/>
+        <n v="76000.0"/>
+        <n v="110000.0"/>
+        <n v="93750.0"/>
+        <n v="44875.0"/>
+        <n v="49000.0"/>
+        <s v="38 400"/>
+        <n v="40478.0"/>
+        <s v="130 000€"/>
+        <s v="100 000"/>
+        <n v="91000.0"/>
+        <n v="130000.0"/>
+        <n v="61200.0"/>
+        <n v="66250.0"/>
+        <n v="63312.5"/>
+        <n v="104000.0"/>
+        <n v="38000.0"/>
+        <n v="36300.0"/>
+        <n v="98000.0"/>
+        <s v="54 000"/>
+        <n v="72520.0"/>
+        <n v="95000.0"/>
+        <n v="73000.0"/>
+        <n v="53750.0"/>
+        <n v="73750.0"/>
+        <n v="63000.0"/>
+        <n v="46875.0"/>
+        <n v="35250.0"/>
+        <s v="78000 + optiot"/>
+        <n v="65450.0"/>
+        <s v="40 000"/>
+        <n v="49375.0"/>
+        <n v="42625.0"/>
+        <n v="44700.0"/>
+        <n v="51250.0"/>
+        <n v="29400.0"/>
+        <n v="20000.0"/>
+        <n v="87500.0"/>
+        <n v="83750.0"/>
+        <n v="40625.0"/>
+        <n v="41000.0"/>
+        <n v="46000.0"/>
+        <n v="34650.0"/>
+        <n v="155000.0"/>
+        <n v="58125.0"/>
+        <n v="33750.0"/>
+        <n v="71000.0"/>
+        <n v="48100.0"/>
+        <s v="99 000"/>
+        <n v="40800.0"/>
+        <n v="111000.0"/>
+        <n v="89000.0"/>
+        <s v="57 000"/>
+        <n v="46800.0"/>
+        <n v="40250.0"/>
+        <n v="56300.0"/>
+        <n v="70625.0"/>
+        <n v="61000.0"/>
+        <n v="105000.0"/>
+        <n v="51600.0"/>
+        <n v="40956.0"/>
+        <n v="74100.0"/>
+        <s v="37 500"/>
+        <n v="94000.0"/>
+        <n v="102000.0"/>
+        <s v="Optiot"/>
+        <n v="32500.0"/>
+        <n v="36000.0"/>
+        <n v="69400.0"/>
+        <n v="56200.0"/>
+        <n v="41250.0"/>
+        <n v="50875.0"/>
+        <n v="60500.0"/>
+        <s v="93 750"/>
+        <n v="300000.0"/>
+        <n v="165000.0"/>
+        <n v="71500.0"/>
+        <n v="31200.0"/>
+        <n v="25000.0"/>
+        <n v="48225.0"/>
+        <n v="82500.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Onko palkkasi nykyroolissasi mielestäsi kilpailukykyinen?" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Kyllä"/>
+        <s v="Ei"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Työpaikka" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Questrade"/>
+        <s v="Digia Oyj"/>
+        <s v="Gofore"/>
+        <s v="Oura Health"/>
+        <s v="Wirepas"/>
+        <s v="Codemate"/>
+        <s v="konsulttitalo"/>
+        <s v="Futurice"/>
+        <s v="Compile Oy"/>
+        <s v="Eficode"/>
+        <s v="cgi"/>
+        <s v="UpCloud"/>
+        <s v="Gofore Oyj"/>
+        <s v="Startup"/>
+        <s v="Qvik"/>
+        <s v="Arado"/>
+        <s v="Exove"/>
+        <s v="Verkkokauppa.com Oyj"/>
+        <s v="SurviveJS Oy"/>
+        <s v="Bittium"/>
+        <s v="Valtio"/>
+        <s v="Kela"/>
+        <s v="Valtion omistama yritys"/>
+        <s v="Digitoimisto Dude Oy"/>
+        <s v="Vincit"/>
+        <s v="Brella"/>
+        <s v="Pankki"/>
+        <s v="hyvä työ"/>
+        <s v="Columbia Road"/>
+        <s v="Konsulttiyritys"/>
+        <s v="UseLess"/>
+        <s v="Fraktio"/>
+        <s v="Siili"/>
+        <s v="Almamedia Partners"/>
+        <s v="Academic Work"/>
+        <s v="Columbia Road Oy"/>
+        <s v="Oma firma"/>
+        <s v="Mirantis"/>
+        <s v="Konsulttiputka"/>
+        <s v="Siili solutions"/>
+        <s v="Houston Inc."/>
+        <s v="Kaverin firma. Hyväntekeväisyyttä tälläsel alle neljän kilon palkoil mutta sentään on periantai kaliat aina viriman piikkii räh kjäh"/>
+        <s v="Pieni tuotetalo"/>
+        <s v="en halua"/>
+        <s v="F-Secure"/>
+        <s v="Zure Oy"/>
+        <s v="Telia Cygate Oy"/>
+        <s v="Geniem"/>
+        <s v="If"/>
+        <s v="Reaktor"/>
+        <s v="julkinen sektori"/>
+        <s v="Kiho"/>
+        <s v="Evermade"/>
+        <s v="KVTES-alainen kunnan omistama oy "/>
+        <s v="Yksityinen yritys"/>
+        <s v="isohko konsulttilafka"/>
+        <s v="Teleoperaattori"/>
+        <s v="Pieni startup"/>
+        <s v="Nixu"/>
+        <s v="If Vakuutus"/>
+        <s v="Rare Agency Oy"/>
+        <s v="ATR Soft"/>
+        <s v="Sulava"/>
+        <s v="Iso konsulttitalo"/>
+        <s v="Mavericks "/>
+        <s v="Mavericks"/>
+        <s v="Wapice"/>
+        <s v="Bitwise Oy"/>
+        <s v="Mavericks Software Oy"/>
+        <s v="Siili Solutions Oyj"/>
+        <s v="Wakeone"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vapaa sana" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Kuukausipalkkaan tulossa ihan juuri firman laajuinen pieni (muistaakseni 50 e) yleiskorotus + palkka nousee ainakin 2800 e/kk, kunhan valmistuisi."/>
+        <s v="Työskentelen toimistolla, koska täällä ei ole ketään muita. Työnantajan puolesta voisin työskennellä myös kotoa."/>
+        <s v="palkan lisäksi kompensaatioon kuuluu varsin runsas ja suomen it-alalla uniikki etupaketti. pelkkä palkka ei välttämättä ole kilpailukykyinen, mutta koko kompensaatio yleisesti työstäni on ehdottomasti kilpailukykyinen. "/>
+        <s v="Rahapalkan päälle tulee vielä kohtuullinen optiopotti, mutta se toki on lähinnä arpalippu"/>
+        <s v="Osittain laskutukseen perustuva palkka joten vaihtelee."/>
+        <s v="Olen osakkaana startupissa, 5% osuus on osa kokonaiskompensaatiota. Edellisessä työssä bruttopalkka oli 6000 euroa kuukaudessa."/>
+        <s v="Ilmaset kaffet, safkat, salit jne."/>
+        <s v="startup, palkan lisäksi optiopaketti."/>
+        <s v="Palkka perustuu osittain laskutukseen, joten vuositulot vaihtelevat hieman."/>
+        <s v="Vuositulot pitää sisällään myös sivutoimisena tehtyä pientä laskutusta."/>
+        <s v="saispa lisää liksaa"/>
+        <s v="Startup"/>
+        <s v="+ merkittävä optiopaketti"/>
+        <s v="Johtajasopimus, ei työaikaa"/>
+        <s v="Vastasin kysymyksiin läpällä. Summat on enemmän sitä minkä verran yrittäjänä haluaa sykkiä ja mennä &quot;raha edellä&quot;. "/>
+        <s v="Korona-aika on lisännyt etätyön määrää. Aiemmin pari päivää viikossa etänä, nyt kokonaan. Paluuta vanhaan ei varmaankaan ole, ehkä päivä viikossa konttorilla ihan sosiaalisten kontaktien takia."/>
+        <s v="Ei sinänsä liity suoraan palkkoihin, mutta olisi mielenkiintoista tietää miten palkka vaikuttaa työpaikan vaihtoon. Eli esim. Oletko vaihtanut/vaihtamassa/miettinyt vaihtamista, koska toisaalla maksetaan enemmän?"/>
+        <s v="olen sekä päivätyöläinen että friikku. jospa nyt kuitenki vois valita monta?"/>
+        <s v="Ihan OK. Edut myös kovat."/>
+        <s v="Työskentelen opintojen ohella, ensimmäisessä frontend devaajan työssä. Olen opiskellut reilu 2 vuotta yliopistossa. Palkkani on mielestäni nyt ihan ok, mutta tarkoituksena nostaa sitä 3000e /kk loppukesään mennessä. "/>
+        <s v="palkan lisänä lounas- ja virkistysetu"/>
+        <s v="Opiskelija"/>
+        <s v="Teen 80% työaikaa jotta ehtisin harrastaa kaikenlaista työnteon lisäksi"/>
+        <s v="Halpaa freelancer laskutusta oman tuotekehityksen sivussa"/>
+        <s v="Palkka riippuu osittain firman tuloksesta, joten vaikea sanoa tarkkaan."/>
+        <s v="Vaikea vastata henkilönä joka tekee yrityksen kautta yhdelle ulkomaalaiselle yritykselle töitä (jolla ei ole entiteettiä suomessa). Vastasin nyt ikään kuin olisin yrittäjä vaikka käytännössä tämä on sama kuin olisin palkkaduunissa."/>
+        <s v="Pakettiin kuuluu reilu määrä optioita ja palkka nousee (ja laskee) firman liikevaihdon myötä."/>
+        <s v="it-ala 10+v koodaus 6v"/>
+        <s v="Vaikka merkitsin, että palkkani ei ole mielestäni kilpailukykyinen, se ei tarkoita ettenkö olisi siihen tyytyväinen. Tilanne yrittäjillä ei yleensä vastaa samaa kuin palkansaajilla, joten palkka ei ole yrittäjille monestikaan niin mustavalkoinen asia vaan"/>
+        <s v="Ennen koronaa oli osittainen etätyö, koronan jälkeen 100%"/>
+        <s v="Sijainti Pori, mutta etätöitä 100%. Varsinainen positio Tampere - Helsinki. Edut aika huonot, perusjutut. Työ itsessään aika masentavaa. Seuraavaksi varmaan freelance/yrittäjyys."/>
+        <s v="Bonukset riippuu firman tuloksesta. Palkka olisi varmastikin enemmän muualla mutta uskoakseni linjassa kollegoideni kanssa."/>
+        <s v="Pieni firma ja paljon hattuja päässä. Palkka on hyvä, mutta ei korvaa stressiä ja painetta."/>
+        <s v="hyvä kysely"/>
+        <s v="Kokemusta kokonaisuudessaan 7v, mutta siitä reilut kaksi vuotta lasten kanssa kotona koodaamatta."/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 1" cacheId="0" dataCaption="" compact="0" compactData="0">
+  <location ref="A1:E10" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields>
+    <pivotField name="Timestamp" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Missä kaupungissa työpaikkasi pääasiallinen toimisto sijaitsee?" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Ikä" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Sukupuoli" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Työkokemus" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Työsuhteen luonne" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Työaika (jos työsuhteessa)" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Rooli" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Etänä vai paikallisesti?" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Kuukausipalkka (jos työntekijä) (brutto)" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Vuositulot (sis. bonukset, osingot yms) / Vuosilaskutus (jos laskutat)" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Onko palkkasi nykyroolissasi mielestäsi kilpailukykyinen?" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Työpaikka" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Vapaa sana" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18929,7 +21535,453 @@
         <v>444</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="3">
+        <v>44249.442153634256</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E460" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G460" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J460" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="L460" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N460" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3">
+        <v>44249.46080728009</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E461" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G461" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J461" s="2">
+        <v>3858.0</v>
+      </c>
+      <c r="K461" s="2">
+        <v>48225.0</v>
+      </c>
+      <c r="L461" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M461" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3">
+        <v>44249.46215032408</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E462" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G462" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H462" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J462" s="2">
+        <v>8200.0</v>
+      </c>
+      <c r="K462" s="2">
+        <v>100000.0</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3">
+        <v>44249.53087737269</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E463" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G463" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J463" s="2">
+        <v>5700.0</v>
+      </c>
+      <c r="K463" s="2">
+        <v>70000.0</v>
+      </c>
+      <c r="L463" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3">
+        <v>44249.531037430555</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E464" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G464" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J464" s="2">
+        <v>3800.0</v>
+      </c>
+      <c r="K464" s="2">
+        <v>47500.0</v>
+      </c>
+      <c r="L464" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3">
+        <v>44249.534383252314</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E465" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G465" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I465" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J465" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K465" s="2">
+        <v>56250.0</v>
+      </c>
+      <c r="L465" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3">
+        <v>44249.535729062496</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E466" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G466" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H466" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I466" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J466" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="K466" s="2">
+        <v>37500.0</v>
+      </c>
+      <c r="L466" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N466" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3">
+        <v>44249.537598807874</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E467" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G467" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J467" s="2">
+        <v>5500.0</v>
+      </c>
+      <c r="K467" s="2">
+        <v>82500.0</v>
+      </c>
+      <c r="L467" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3">
+        <v>44249.543949768515</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E468" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G468" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I468" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J468" s="2">
+        <v>4200.0</v>
+      </c>
+      <c r="K468" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="L468" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3">
+        <v>44249.565138668986</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E469" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G469" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J469" s="2">
+        <v>2200.0</v>
+      </c>
+      <c r="L469" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3">
+        <v>44249.59106795139</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E470" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G470" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H470" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J470" s="2">
+        <v>4800.0</v>
+      </c>
+      <c r="K470" s="2">
+        <v>59000.0</v>
+      </c>
+      <c r="L470" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+  </sheetData>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="483">
   <si>
     <t>Timestamp</t>
   </si>
@@ -380,9 +380,6 @@
     <t>ohjelmistokehittäjä / -arkkitehti</t>
   </si>
   <si>
-    <t>UpCloud</t>
-  </si>
-  <si>
     <t>seniori automaatio säätäjä</t>
   </si>
   <si>
@@ -1383,6 +1380,81 @@
   </si>
   <si>
     <t>Senior Backend Developer</t>
+  </si>
+  <si>
+    <t>Teknologiajohtaja</t>
+  </si>
+  <si>
+    <t>senior game developer</t>
+  </si>
+  <si>
+    <t>full-stack conslut</t>
+  </si>
+  <si>
+    <t>keskikokoinen konsulttifirma</t>
+  </si>
+  <si>
+    <t>Front-end Developer</t>
+  </si>
+  <si>
+    <t>4695,70</t>
+  </si>
+  <si>
+    <t>58696,25</t>
+  </si>
+  <si>
+    <t>ohjelmistokehittäjä/konsultti (senior, full-stack)</t>
+  </si>
+  <si>
+    <t>Olen firmaan, sen etuihin ja työilmapiiriin tyytyväinen.</t>
+  </si>
+  <si>
+    <t>Hanksalmi</t>
+  </si>
+  <si>
+    <t>Fullstaxk</t>
+  </si>
+  <si>
+    <t>Senior/Lead developer</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Full Stack Web Developer / CEO</t>
+  </si>
+  <si>
+    <t>27 000</t>
+  </si>
+  <si>
+    <t>Tuspe Design Oy</t>
+  </si>
+  <si>
+    <t>Mikkeli</t>
+  </si>
+  <si>
+    <t>Ohjelmistokehittäjä, Tech Lead</t>
+  </si>
+  <si>
+    <t>Mies-oletettu</t>
+  </si>
+  <si>
+    <t>Fullstack ja pientä devops tunkkia</t>
+  </si>
+  <si>
+    <t>naisoletettu</t>
+  </si>
+  <si>
+    <t>Systems Administrator ja firmän sisäinen 1st line -tukihessu</t>
+  </si>
+  <si>
+    <t>Kk-palkkani on varsinkin vaihteleva, koska riippuu vuorolisistä (mahdollisista pyhä- ja yövuoroista ja tuurauksista). Jonkinlaisen oletuksen nyt yritin lyödä vuositulolle, mutta taitaa jäädä todellisuudessa hivenen sen alle.</t>
+  </si>
+  <si>
+    <t>Full-stack ohjemistokehittäjä</t>
+  </si>
+  <si>
+    <t>Backend-koodari</t>
   </si>
   <si>
     <t>Columns</t>
@@ -2629,7 +2701,6 @@
         <s v="Compile Oy"/>
         <s v="Eficode"/>
         <s v="cgi"/>
-        <s v="UpCloud"/>
         <s v="Gofore Oyj"/>
         <s v="Startup"/>
         <s v="Qvik"/>
@@ -3970,7 +4041,6 @@
         <item x="68"/>
         <item x="69"/>
         <item x="70"/>
-        <item x="71"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7838,9 +7908,6 @@
       <c r="L97" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M97" s="2" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="3">
@@ -7865,7 +7932,7 @@
         <v>1.0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>18</v>
@@ -7903,7 +7970,7 @@
         <v>1.0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>34</v>
@@ -8026,13 +8093,13 @@
         <v>4860.0</v>
       </c>
       <c r="K102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="103">
@@ -8058,7 +8125,7 @@
         <v>1.0</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>34</v>
@@ -8096,7 +8163,7 @@
         <v>1.0</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>34</v>
@@ -8111,10 +8178,10 @@
         <v>27</v>
       </c>
       <c r="M104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N104" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="105">
@@ -8178,7 +8245,7 @@
         <v>1.0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>23</v>
@@ -8187,7 +8254,7 @@
         <v>2600.0</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>27</v>
@@ -8216,13 +8283,13 @@
         <v>1.0</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K107" s="2">
         <v>32600.0</v>
@@ -8231,7 +8298,7 @@
         <v>27</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
@@ -8333,22 +8400,22 @@
         <v>1.0</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="111">
@@ -8374,7 +8441,7 @@
         <v>1.0</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>34</v>
@@ -8389,7 +8456,7 @@
         <v>19</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
@@ -8450,7 +8517,7 @@
         <v>1.0</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>34</v>
@@ -8532,7 +8599,7 @@
         <v>4250.0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>19</v>
@@ -8561,7 +8628,7 @@
         <v>1.0</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>23</v>
@@ -8637,7 +8704,7 @@
         <v>1.0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>34</v>
@@ -8652,7 +8719,7 @@
         <v>19</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119">
@@ -8678,7 +8745,7 @@
         <v>1.0</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>23</v>
@@ -8695,7 +8762,7 @@
         <v>44242.601048854165</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>58</v>
@@ -8710,7 +8777,7 @@
         <v>29</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>23</v>
@@ -8725,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
@@ -8754,7 +8821,7 @@
         <v>23</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>19</v>
@@ -8871,7 +8938,7 @@
         <v>27</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
@@ -8897,7 +8964,7 @@
         <v>1.0</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>23</v>
@@ -8932,7 +8999,7 @@
         <v>1.0</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>18</v>
@@ -9005,7 +9072,7 @@
         <v>1.0</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>34</v>
@@ -9017,7 +9084,7 @@
         <v>53000.0</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
@@ -9043,7 +9110,7 @@
         <v>1.0</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>34</v>
@@ -9081,7 +9148,7 @@
         <v>1.0</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>23</v>
@@ -9195,7 +9262,7 @@
         <v>1.0</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>34</v>
@@ -9233,7 +9300,7 @@
         <v>1.0</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>23</v>
@@ -9271,7 +9338,7 @@
         <v>1.0</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>34</v>
@@ -9306,13 +9373,13 @@
         <v>35</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>19</v>
@@ -9341,7 +9408,7 @@
         <v>1.0</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>23</v>
@@ -9379,7 +9446,7 @@
         <v>1.0</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>23</v>
@@ -9452,7 +9519,7 @@
         <v>1.0</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>23</v>
@@ -9490,7 +9557,7 @@
         <v>1.0</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>23</v>
@@ -9592,7 +9659,7 @@
         <v>1.0</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>34</v>
@@ -9645,7 +9712,7 @@
         <v>27</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146">
@@ -9683,7 +9750,7 @@
         <v>19</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147">
@@ -9721,7 +9788,7 @@
         <v>27</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148">
@@ -9744,7 +9811,7 @@
         <v>1.0</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>34</v>
@@ -9761,7 +9828,7 @@
         <v>44242.63087304398</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>85</v>
@@ -9779,7 +9846,7 @@
         <v>1.0</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>34</v>
@@ -9794,7 +9861,7 @@
         <v>19</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150">
@@ -9820,7 +9887,7 @@
         <v>1.0</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>34</v>
@@ -9835,7 +9902,7 @@
         <v>19</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151">
@@ -9861,7 +9928,7 @@
         <v>1.0</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>23</v>
@@ -9873,7 +9940,7 @@
         <v>27</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152">
@@ -9899,7 +9966,7 @@
         <v>1.0</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>23</v>
@@ -9914,7 +9981,7 @@
         <v>27</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153">
@@ -10019,7 +10086,7 @@
         <v>19</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156">
@@ -10057,10 +10124,10 @@
         <v>19</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157">
@@ -10121,7 +10188,7 @@
         <v>1.0</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>23</v>
@@ -10136,10 +10203,10 @@
         <v>19</v>
       </c>
       <c r="M158" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="159">
@@ -10165,7 +10232,7 @@
         <v>1.0</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>34</v>
@@ -10203,7 +10270,7 @@
         <v>1.0</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>34</v>
@@ -10229,7 +10296,7 @@
         <v>43</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E161" s="2">
         <v>15.0</v>
@@ -10241,7 +10308,7 @@
         <v>1.0</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>23</v>
@@ -10256,7 +10323,7 @@
         <v>19</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162">
@@ -10288,7 +10355,7 @@
         <v>23</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>19</v>
@@ -10317,7 +10384,7 @@
         <v>1.0</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>23</v>
@@ -10337,7 +10404,7 @@
         <v>44242.660700625</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>85</v>
@@ -10387,7 +10454,7 @@
         <v>1.0</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>23</v>
@@ -10425,7 +10492,7 @@
         <v>1.0</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>34</v>
@@ -10463,7 +10530,7 @@
         <v>1.0</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>34</v>
@@ -10501,7 +10568,7 @@
         <v>1.0</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>23</v>
@@ -10516,7 +10583,7 @@
         <v>19</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169">
@@ -10580,7 +10647,7 @@
         <v>1.0</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>34</v>
@@ -10595,7 +10662,7 @@
         <v>19</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171">
@@ -10621,7 +10688,7 @@
         <v>1.0</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>34</v>
@@ -10700,7 +10767,7 @@
         <v>1.0</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>23</v>
@@ -10735,7 +10802,7 @@
         <v>1.0</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>23</v>
@@ -10811,7 +10878,7 @@
         <v>1.0</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>18</v>
@@ -10837,7 +10904,7 @@
         <v>43</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E177" s="2">
         <v>13.0</v>
@@ -10849,7 +10916,7 @@
         <v>1.0</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>23</v>
@@ -10957,7 +11024,7 @@
         <v>1.0</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>34</v>
@@ -10995,7 +11062,7 @@
         <v>1.0</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>23</v>
@@ -11004,13 +11071,13 @@
         <v>7000.0</v>
       </c>
       <c r="K181" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M181" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="L181" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M181" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="182">
@@ -11051,7 +11118,7 @@
         <v>19</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183">
@@ -11077,7 +11144,7 @@
         <v>1.0</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>18</v>
@@ -11132,7 +11199,7 @@
         <v>44242.75215809028</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>58</v>
@@ -11150,7 +11217,7 @@
         <v>1.0</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>23</v>
@@ -11223,7 +11290,7 @@
         <v>1.0</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>34</v>
@@ -11261,7 +11328,7 @@
         <v>1.0</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>23</v>
@@ -11299,7 +11366,7 @@
         <v>0.8</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>23</v>
@@ -11337,7 +11404,7 @@
         <v>1.0</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>23</v>
@@ -11448,7 +11515,7 @@
         <v>1.0</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>18</v>
@@ -11521,7 +11588,7 @@
         <v>1.0</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>18</v>
@@ -11559,7 +11626,7 @@
         <v>1.0</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I196" s="2" t="s">
         <v>23</v>
@@ -11617,7 +11684,7 @@
         <v>43</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E198" s="2">
         <v>15.0</v>
@@ -11629,7 +11696,7 @@
         <v>1.0</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I198" s="2" t="s">
         <v>23</v>
@@ -11641,7 +11708,7 @@
         <v>19</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199">
@@ -11664,7 +11731,7 @@
         <v>1.0</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I199" s="2" t="s">
         <v>18</v>
@@ -11714,10 +11781,10 @@
         <v>27</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201">
@@ -11796,7 +11863,7 @@
         <v>19</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203">
@@ -11822,7 +11889,7 @@
         <v>1.0</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>18</v>
@@ -11845,7 +11912,7 @@
         <v>14</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>21</v>
@@ -11860,7 +11927,7 @@
         <v>1.0</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>23</v>
@@ -11880,7 +11947,7 @@
         <v>44242.87131163194</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>32</v>
@@ -11930,7 +11997,7 @@
         <v>1.0</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>23</v>
@@ -12000,7 +12067,7 @@
         <v>1.0</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J208" s="2">
         <v>6000.0</v>
@@ -12012,7 +12079,7 @@
         <v>19</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209">
@@ -12038,7 +12105,7 @@
         <v>0.8</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>23</v>
@@ -12073,7 +12140,7 @@
         <v>1.0</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>34</v>
@@ -12111,7 +12178,7 @@
         <v>1.0</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>18</v>
@@ -12187,7 +12254,7 @@
         <v>1.0</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>23</v>
@@ -12225,7 +12292,7 @@
         <v>1.0</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>18</v>
@@ -12237,7 +12304,7 @@
         <v>19</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215">
@@ -12301,7 +12368,7 @@
         <v>1.0</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>34</v>
@@ -12339,7 +12406,7 @@
         <v>1.0</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I217" s="2" t="s">
         <v>34</v>
@@ -12354,7 +12421,7 @@
         <v>27</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="218">
@@ -12380,7 +12447,7 @@
         <v>1.0</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I218" s="2" t="s">
         <v>23</v>
@@ -12395,10 +12462,10 @@
         <v>27</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219">
@@ -12439,7 +12506,7 @@
         <v>19</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220">
@@ -12465,7 +12532,7 @@
         <v>1.0</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>18</v>
@@ -12503,7 +12570,7 @@
         <v>1.0</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>34</v>
@@ -12518,7 +12585,7 @@
         <v>19</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="222">
@@ -12588,7 +12655,7 @@
         <v>27</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224">
@@ -12614,7 +12681,7 @@
         <v>1.0</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>23</v>
@@ -12661,7 +12728,7 @@
         <v>2850.0</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L225" s="2" t="s">
         <v>19</v>
@@ -12705,7 +12772,7 @@
         <v>19</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227">
@@ -12731,13 +12798,13 @@
         <v>1.0</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L227" s="2" t="s">
         <v>19</v>
@@ -12766,7 +12833,7 @@
         <v>1.0</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>34</v>
@@ -12804,7 +12871,7 @@
         <v>1.0</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>34</v>
@@ -12883,7 +12950,7 @@
         <v>1.0</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>23</v>
@@ -12898,7 +12965,7 @@
         <v>19</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232">
@@ -12921,7 +12988,7 @@
         <v>29</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>18</v>
@@ -12930,16 +12997,16 @@
         <v>7000.0</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L232" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M232" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N232" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="N232" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="233">
@@ -13003,7 +13070,7 @@
         <v>1.0</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>18</v>
@@ -13091,7 +13158,7 @@
         <v>19</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="237">
@@ -13134,7 +13201,7 @@
         <v>44243.73546965278</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>105</v>
@@ -13152,7 +13219,7 @@
         <v>0.8</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>18</v>
@@ -13190,7 +13257,7 @@
         <v>1.0</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>23</v>
@@ -13228,7 +13295,7 @@
         <v>1.0</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I240" s="2" t="s">
         <v>18</v>
@@ -13263,7 +13330,7 @@
         <v>1.0</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J241" s="2">
         <v>4000.0</v>
@@ -13289,7 +13356,7 @@
         <v>43</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E242" s="2">
         <v>15.0</v>
@@ -13301,7 +13368,7 @@
         <v>1.0</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I242" s="2" t="s">
         <v>18</v>
@@ -13339,7 +13406,7 @@
         <v>1.0</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I243" s="2" t="s">
         <v>34</v>
@@ -13374,7 +13441,7 @@
         <v>1.0</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>34</v>
@@ -13412,7 +13479,7 @@
         <v>1.0</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I245" s="2" t="s">
         <v>18</v>
@@ -13450,7 +13517,7 @@
         <v>1.0</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>34</v>
@@ -13465,7 +13532,7 @@
         <v>27</v>
       </c>
       <c r="M246" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="247">
@@ -13491,7 +13558,7 @@
         <v>1.0</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>23</v>
@@ -13506,7 +13573,7 @@
         <v>19</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248">
@@ -13532,7 +13599,7 @@
         <v>1.0</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I248" s="2" t="s">
         <v>23</v>
@@ -13547,7 +13614,7 @@
         <v>19</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249">
@@ -13573,7 +13640,7 @@
         <v>1.0</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>18</v>
@@ -13611,7 +13678,7 @@
         <v>1.0</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>34</v>
@@ -13634,7 +13701,7 @@
         <v>73</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>21</v>
@@ -13649,7 +13716,7 @@
         <v>1.0</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I251" s="2" t="s">
         <v>23</v>
@@ -13684,7 +13751,7 @@
         <v>35</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I252" s="2" t="s">
         <v>34</v>
@@ -13719,7 +13786,7 @@
         <v>1.0</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I253" s="2" t="s">
         <v>18</v>
@@ -13754,7 +13821,7 @@
         <v>1.0</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>34</v>
@@ -13792,7 +13859,7 @@
         <v>1.0</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I255" s="2" t="s">
         <v>23</v>
@@ -13868,7 +13935,7 @@
         <v>1.0</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I257" s="2" t="s">
         <v>23</v>
@@ -13959,7 +14026,7 @@
         <v>27</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260">
@@ -13997,7 +14064,7 @@
         <v>19</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261">
@@ -14023,7 +14090,7 @@
         <v>0.8</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I261" s="2" t="s">
         <v>18</v>
@@ -14061,7 +14128,7 @@
         <v>1.0</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>18</v>
@@ -14099,7 +14166,7 @@
         <v>1.0</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>23</v>
@@ -14114,10 +14181,10 @@
         <v>19</v>
       </c>
       <c r="M263" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N263" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="N263" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="264">
@@ -14143,7 +14210,7 @@
         <v>1.0</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>18</v>
@@ -14178,7 +14245,7 @@
         <v>1.0</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>23</v>
@@ -14213,7 +14280,7 @@
         <v>0.8</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I266" s="2" t="s">
         <v>18</v>
@@ -14228,7 +14295,7 @@
         <v>27</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267">
@@ -14254,7 +14321,7 @@
         <v>1.0</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>23</v>
@@ -14269,7 +14336,7 @@
         <v>19</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268">
@@ -14283,7 +14350,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E268" s="2">
         <v>7.0</v>
@@ -14295,7 +14362,7 @@
         <v>1.0</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>34</v>
@@ -14304,7 +14371,7 @@
         <v>4200.0</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L268" s="2" t="s">
         <v>19</v>
@@ -14388,7 +14455,7 @@
         <v>32</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E271" s="2">
         <v>20.0</v>
@@ -14400,7 +14467,7 @@
         <v>1.0</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>23</v>
@@ -14415,10 +14482,10 @@
         <v>19</v>
       </c>
       <c r="M271" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N271" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="N271" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="272">
@@ -14444,7 +14511,7 @@
         <v>1.0</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I272" s="2" t="s">
         <v>23</v>
@@ -14479,7 +14546,7 @@
         <v>1.0</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I273" s="2" t="s">
         <v>34</v>
@@ -14494,7 +14561,7 @@
         <v>19</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274">
@@ -14535,10 +14602,10 @@
         <v>19</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275">
@@ -14602,7 +14669,7 @@
         <v>1.0</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I276" s="2" t="s">
         <v>23</v>
@@ -14693,7 +14760,7 @@
         <v>19</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="279">
@@ -14734,7 +14801,7 @@
         <v>19</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280">
@@ -14760,7 +14827,7 @@
         <v>1.0</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I280" s="2" t="s">
         <v>23</v>
@@ -14798,7 +14865,7 @@
         <v>1.0</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I281" s="2" t="s">
         <v>23</v>
@@ -14836,7 +14903,7 @@
         <v>1.0</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I282" s="2" t="s">
         <v>23</v>
@@ -14856,7 +14923,7 @@
         <v>44246.450664675926</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>24</v>
@@ -14874,7 +14941,7 @@
         <v>1.0</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I283" s="2" t="s">
         <v>23</v>
@@ -14912,7 +14979,7 @@
         <v>1.0</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>23</v>
@@ -14929,7 +14996,7 @@
         <v>44246.45099189815</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>24</v>
@@ -14962,7 +15029,7 @@
         <v>27</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286">
@@ -14988,7 +15055,7 @@
         <v>1.0</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I286" s="2" t="s">
         <v>23</v>
@@ -14997,7 +15064,7 @@
         <v>6500.0</v>
       </c>
       <c r="K286" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="287">
@@ -15023,7 +15090,7 @@
         <v>1.0</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I287" s="2" t="s">
         <v>23</v>
@@ -15058,7 +15125,7 @@
         <v>1.0</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>23</v>
@@ -15093,7 +15160,7 @@
         <v>1.0</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>18</v>
@@ -15108,7 +15175,7 @@
         <v>27</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290">
@@ -15134,7 +15201,7 @@
         <v>1.0</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>34</v>
@@ -15149,7 +15216,7 @@
         <v>19</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="291">
@@ -15175,7 +15242,7 @@
         <v>0.7</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>23</v>
@@ -15184,7 +15251,7 @@
         <v>3200.0</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L291" s="2" t="s">
         <v>19</v>
@@ -15213,7 +15280,7 @@
         <v>1.0</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>34</v>
@@ -15228,7 +15295,7 @@
         <v>27</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="293">
@@ -15254,7 +15321,7 @@
         <v>1.0</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I293" s="2" t="s">
         <v>23</v>
@@ -15266,7 +15333,7 @@
         <v>27</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="294">
@@ -15330,7 +15397,7 @@
         <v>1.0</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I295" s="2" t="s">
         <v>23</v>
@@ -15353,7 +15420,7 @@
         <v>44246.452247037036</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>85</v>
@@ -15371,7 +15438,7 @@
         <v>1.0</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>34</v>
@@ -15406,7 +15473,7 @@
         <v>1.0</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I297" s="2" t="s">
         <v>23</v>
@@ -15479,7 +15546,7 @@
         <v>1.0</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I299" s="2" t="s">
         <v>23</v>
@@ -15517,7 +15584,7 @@
         <v>1.0</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I300" s="2" t="s">
         <v>34</v>
@@ -15537,7 +15604,7 @@
         <v>44246.45260965278</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>32</v>
@@ -15555,7 +15622,7 @@
         <v>1.0</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I301" s="2" t="s">
         <v>18</v>
@@ -15567,7 +15634,7 @@
         <v>19</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="302">
@@ -15593,7 +15660,7 @@
         <v>1.0</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I302" s="2" t="s">
         <v>18</v>
@@ -15646,7 +15713,7 @@
         <v>27</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="304">
@@ -15672,7 +15739,7 @@
         <v>1.0</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I304" s="2" t="s">
         <v>23</v>
@@ -15707,7 +15774,7 @@
         <v>0.6</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I305" s="2" t="s">
         <v>23</v>
@@ -15815,7 +15882,7 @@
         <v>0.5</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I308" s="2" t="s">
         <v>18</v>
@@ -15830,7 +15897,7 @@
         <v>19</v>
       </c>
       <c r="N308" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="309">
@@ -15894,7 +15961,7 @@
         <v>1.0</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>18</v>
@@ -15906,10 +15973,10 @@
         <v>60000.0</v>
       </c>
       <c r="M310" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N310" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="N310" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="311">
@@ -15935,7 +16002,7 @@
         <v>1.0</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I311" s="2" t="s">
         <v>34</v>
@@ -15973,7 +16040,7 @@
         <v>1.0</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I312" s="2" t="s">
         <v>23</v>
@@ -16011,7 +16078,7 @@
         <v>1.0</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I313" s="2" t="s">
         <v>23</v>
@@ -16028,7 +16095,7 @@
         <v>44246.454656284724</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>32</v>
@@ -16037,7 +16104,7 @@
         <v>25</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>16</v>
@@ -16061,7 +16128,7 @@
         <v>19</v>
       </c>
       <c r="M314" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="315">
@@ -16069,7 +16136,7 @@
         <v>44246.45479318287</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>43</v>
@@ -16087,7 +16154,7 @@
         <v>1.0</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I315" s="2" t="s">
         <v>18</v>
@@ -16125,7 +16192,7 @@
         <v>1.0</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I316" s="2" t="s">
         <v>34</v>
@@ -16163,7 +16230,7 @@
         <v>1.0</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I317" s="2" t="s">
         <v>18</v>
@@ -16201,7 +16268,7 @@
         <v>1.0</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I318" s="2" t="s">
         <v>34</v>
@@ -16221,7 +16288,7 @@
         <v>44246.455817152775</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>43</v>
@@ -16353,7 +16420,7 @@
         <v>1.0</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I322" s="2" t="s">
         <v>34</v>
@@ -16368,7 +16435,7 @@
         <v>19</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="323">
@@ -16394,7 +16461,7 @@
         <v>1.0</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I323" s="2" t="s">
         <v>18</v>
@@ -16432,7 +16499,7 @@
         <v>1.0</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I324" s="2" t="s">
         <v>18</v>
@@ -16444,10 +16511,10 @@
         <v>60000.0</v>
       </c>
       <c r="M324" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N324" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="N324" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="325">
@@ -16455,7 +16522,7 @@
         <v>44246.457394004625</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>85</v>
@@ -16488,7 +16555,7 @@
         <v>27</v>
       </c>
       <c r="N325" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="326">
@@ -16502,7 +16569,7 @@
         <v>58</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E326" s="2">
         <v>13.0</v>
@@ -16514,7 +16581,7 @@
         <v>1.0</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I326" s="2" t="s">
         <v>34</v>
@@ -16564,7 +16631,7 @@
         <v>19</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="328">
@@ -16590,7 +16657,7 @@
         <v>1.0</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I328" s="2" t="s">
         <v>34</v>
@@ -16628,7 +16695,7 @@
         <v>0.8</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I329" s="2" t="s">
         <v>34</v>
@@ -16643,7 +16710,7 @@
         <v>19</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="330">
@@ -16669,7 +16736,7 @@
         <v>1.0</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I330" s="2" t="s">
         <v>23</v>
@@ -16689,7 +16756,7 @@
         <v>44246.459005069446</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>58</v>
@@ -16742,7 +16809,7 @@
         <v>29</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I332" s="2" t="s">
         <v>23</v>
@@ -16754,7 +16821,7 @@
         <v>27</v>
       </c>
       <c r="N332" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="333">
@@ -16798,7 +16865,7 @@
         <v>95</v>
       </c>
       <c r="N333" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="334">
@@ -16824,7 +16891,7 @@
         <v>1.0</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I334" s="2" t="s">
         <v>23</v>
@@ -16859,7 +16926,7 @@
         <v>1.0</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>23</v>
@@ -16894,7 +16961,7 @@
         <v>1.0</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>18</v>
@@ -16932,7 +16999,7 @@
         <v>1.0</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I337" s="2" t="s">
         <v>23</v>
@@ -16999,7 +17066,7 @@
         <v>1.0</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>18</v>
@@ -17011,7 +17078,7 @@
         <v>19</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="340">
@@ -17180,7 +17247,7 @@
         <v>1.0</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I344" s="2" t="s">
         <v>23</v>
@@ -17241,7 +17308,7 @@
         <v>32</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E346" s="2">
         <v>17.0</v>
@@ -17250,7 +17317,7 @@
         <v>35</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I346" s="2" t="s">
         <v>34</v>
@@ -17285,7 +17352,7 @@
         <v>1.0</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I347" s="2" t="s">
         <v>23</v>
@@ -17370,7 +17437,7 @@
         <v>5850.0</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L349" s="2" t="s">
         <v>19</v>
@@ -17381,7 +17448,7 @@
         <v>44246.47038478009</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>58</v>
@@ -17399,7 +17466,7 @@
         <v>1.0</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>18</v>
@@ -17419,7 +17486,7 @@
         <v>14</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>25</v>
@@ -17434,7 +17501,7 @@
         <v>1.0</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I351" s="2" t="s">
         <v>23</v>
@@ -17472,7 +17539,7 @@
         <v>1.0</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I352" s="2" t="s">
         <v>23</v>
@@ -17548,7 +17615,7 @@
         <v>1.0</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I354" s="2" t="s">
         <v>23</v>
@@ -17586,7 +17653,7 @@
         <v>1.0</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I355" s="2" t="s">
         <v>34</v>
@@ -17606,7 +17673,7 @@
         <v>44246.47380755787</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>25</v>
@@ -17618,7 +17685,7 @@
         <v>29</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I356" s="2" t="s">
         <v>23</v>
@@ -17630,7 +17697,7 @@
         <v>19</v>
       </c>
       <c r="N356" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="357">
@@ -17656,7 +17723,7 @@
         <v>1.0</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I357" s="2" t="s">
         <v>18</v>
@@ -17671,7 +17738,7 @@
         <v>19</v>
       </c>
       <c r="N357" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="358">
@@ -17697,7 +17764,7 @@
         <v>1.0</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>23</v>
@@ -17709,7 +17776,7 @@
         <v>19</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="359">
@@ -17735,7 +17802,7 @@
         <v>1.0</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>23</v>
@@ -17770,7 +17837,7 @@
         <v>1.0</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I360" s="2" t="s">
         <v>23</v>
@@ -17779,7 +17846,7 @@
         <v>4500.0</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L360" s="2" t="s">
         <v>27</v>
@@ -17808,7 +17875,7 @@
         <v>1.0</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I361" s="2" t="s">
         <v>34</v>
@@ -17823,7 +17890,7 @@
         <v>19</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="362">
@@ -17849,7 +17916,7 @@
         <v>1.0</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I362" s="2" t="s">
         <v>34</v>
@@ -17864,7 +17931,7 @@
         <v>27</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="363">
@@ -17890,7 +17957,7 @@
         <v>1.0</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>18</v>
@@ -17948,7 +18015,7 @@
         <v>44246.48446436343</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>43</v>
@@ -18001,7 +18068,7 @@
         <v>1.0</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>23</v>
@@ -18036,7 +18103,7 @@
         <v>1.0</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I367" s="2" t="s">
         <v>34</v>
@@ -18074,7 +18141,7 @@
         <v>1.0</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I368" s="2" t="s">
         <v>34</v>
@@ -18100,7 +18167,7 @@
         <v>58</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E369" s="2">
         <v>7.0</v>
@@ -18112,7 +18179,7 @@
         <v>1.0</v>
       </c>
       <c r="H369" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I369" s="2" t="s">
         <v>18</v>
@@ -18150,7 +18217,7 @@
         <v>1.0</v>
       </c>
       <c r="H370" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I370" s="2" t="s">
         <v>18</v>
@@ -18188,7 +18255,7 @@
         <v>1.0</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I371" s="2" t="s">
         <v>18</v>
@@ -18226,7 +18293,7 @@
         <v>1.0</v>
       </c>
       <c r="H372" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I372" s="2" t="s">
         <v>23</v>
@@ -18261,7 +18328,7 @@
         <v>1.0</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>18</v>
@@ -18302,7 +18369,7 @@
         <v>1.0</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>34</v>
@@ -18378,7 +18445,7 @@
         <v>1.0</v>
       </c>
       <c r="H376" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I376" s="2" t="s">
         <v>23</v>
@@ -18416,7 +18483,7 @@
         <v>1.0</v>
       </c>
       <c r="H377" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I377" s="2" t="s">
         <v>18</v>
@@ -18454,7 +18521,7 @@
         <v>1.0</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I378" s="2" t="s">
         <v>23</v>
@@ -18474,7 +18541,7 @@
         <v>44246.50643631944</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>85</v>
@@ -18492,7 +18559,7 @@
         <v>1.0</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I379" s="2" t="s">
         <v>23</v>
@@ -18504,7 +18571,7 @@
         <v>19</v>
       </c>
       <c r="M379" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="380">
@@ -18527,7 +18594,7 @@
         <v>1.0</v>
       </c>
       <c r="H380" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I380" s="2" t="s">
         <v>34</v>
@@ -18565,7 +18632,7 @@
         <v>1.0</v>
       </c>
       <c r="H381" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I381" s="2" t="s">
         <v>23</v>
@@ -18580,7 +18647,7 @@
         <v>27</v>
       </c>
       <c r="N381" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="382">
@@ -18591,7 +18658,7 @@
         <v>14</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>25</v>
@@ -18606,7 +18673,7 @@
         <v>1.0</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I382" s="2" t="s">
         <v>18</v>
@@ -18621,7 +18688,7 @@
         <v>19</v>
       </c>
       <c r="M382" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="383">
@@ -18700,7 +18767,7 @@
         <v>19</v>
       </c>
       <c r="M384" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="385">
@@ -18723,7 +18790,7 @@
         <v>29</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I385" s="2" t="s">
         <v>34</v>
@@ -18735,7 +18802,7 @@
         <v>19</v>
       </c>
       <c r="M385" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="386">
@@ -18746,7 +18813,7 @@
         <v>14</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>25</v>
@@ -18799,7 +18866,7 @@
         <v>1.0</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>23</v>
@@ -18834,7 +18901,7 @@
         <v>1.0</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>23</v>
@@ -18872,7 +18939,7 @@
         <v>1.0</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>23</v>
@@ -18907,7 +18974,7 @@
         <v>1.0</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>34</v>
@@ -18945,7 +19012,7 @@
         <v>0.8</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>34</v>
@@ -18983,7 +19050,7 @@
         <v>1.0</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I392" s="2" t="s">
         <v>34</v>
@@ -19021,7 +19088,7 @@
         <v>1.0</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>23</v>
@@ -19036,7 +19103,7 @@
         <v>27</v>
       </c>
       <c r="N393" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="394">
@@ -19062,7 +19129,7 @@
         <v>1.0</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I394" s="2" t="s">
         <v>34</v>
@@ -19126,7 +19193,7 @@
         <v>1.0</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>23</v>
@@ -19202,7 +19269,7 @@
         <v>1.0</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I398" s="2" t="s">
         <v>23</v>
@@ -19217,7 +19284,7 @@
         <v>19</v>
       </c>
       <c r="N398" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="399">
@@ -19225,7 +19292,7 @@
         <v>44246.55232758102</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>58</v>
@@ -19269,7 +19336,7 @@
         <v>58</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E400" s="2">
         <v>6.0</v>
@@ -19281,7 +19348,7 @@
         <v>1.0</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>23</v>
@@ -19290,7 +19357,7 @@
         <v>3000.0</v>
       </c>
       <c r="K400" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L400" s="2" t="s">
         <v>19</v>
@@ -19357,7 +19424,7 @@
         <v>1.0</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>18</v>
@@ -19412,7 +19479,7 @@
         <v>44246.5905702662</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>58</v>
@@ -19468,7 +19535,7 @@
         <v>1.0</v>
       </c>
       <c r="H405" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I405" s="2" t="s">
         <v>18</v>
@@ -19506,7 +19573,7 @@
         <v>1.0</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I406" s="2" t="s">
         <v>34</v>
@@ -19515,7 +19582,7 @@
         <v>5000.0</v>
       </c>
       <c r="K406" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L406" s="2" t="s">
         <v>27</v>
@@ -19582,7 +19649,7 @@
         <v>1.0</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I408" s="2" t="s">
         <v>34</v>
@@ -19620,7 +19687,7 @@
         <v>1.0</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I409" s="2" t="s">
         <v>23</v>
@@ -19635,7 +19702,7 @@
         <v>27</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="410">
@@ -19678,7 +19745,7 @@
         <v>44246.61679134259</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>43</v>
@@ -19693,7 +19760,7 @@
         <v>29</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>23</v>
@@ -19725,7 +19792,7 @@
         <v>1.0</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I412" s="2" t="s">
         <v>34</v>
@@ -19801,7 +19868,7 @@
         <v>1.0</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I414" s="2" t="s">
         <v>23</v>
@@ -19816,7 +19883,7 @@
         <v>19</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="415">
@@ -19824,7 +19891,7 @@
         <v>44246.6346266551</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>43</v>
@@ -19842,7 +19909,7 @@
         <v>1.0</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I415" s="2" t="s">
         <v>23</v>
@@ -19857,10 +19924,10 @@
         <v>27</v>
       </c>
       <c r="M415" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N415" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="N415" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="416">
@@ -19886,7 +19953,7 @@
         <v>1.0</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I416" s="2" t="s">
         <v>23</v>
@@ -19912,7 +19979,7 @@
         <v>24</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E417" s="2">
         <v>7.0</v>
@@ -19962,7 +20029,7 @@
         <v>0.8</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I418" s="2" t="s">
         <v>23</v>
@@ -19977,7 +20044,7 @@
         <v>19</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="419">
@@ -20018,7 +20085,7 @@
         <v>19</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="420">
@@ -20041,10 +20108,10 @@
         <v>16</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I420" s="2" t="s">
         <v>18</v>
@@ -20082,7 +20149,7 @@
         <v>1.0</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I421" s="2" t="s">
         <v>23</v>
@@ -20097,7 +20164,7 @@
         <v>19</v>
       </c>
       <c r="M421" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="422">
@@ -20123,7 +20190,7 @@
         <v>1.0</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I422" s="2" t="s">
         <v>18</v>
@@ -20135,7 +20202,7 @@
         <v>19</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="423">
@@ -20176,7 +20243,7 @@
         <v>19</v>
       </c>
       <c r="M423" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424">
@@ -20202,7 +20269,7 @@
         <v>0.8</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I424" s="2" t="s">
         <v>23</v>
@@ -20240,7 +20307,7 @@
         <v>1.0</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>18</v>
@@ -20278,7 +20345,7 @@
         <v>1.0</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I426" s="2" t="s">
         <v>23</v>
@@ -20290,7 +20357,7 @@
         <v>53750.0</v>
       </c>
       <c r="M426" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427">
@@ -20322,7 +20389,7 @@
         <v>18</v>
       </c>
       <c r="J427" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K427" s="2">
         <v>100000.0</v>
@@ -20342,7 +20409,7 @@
         <v>43</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E428" s="2">
         <v>13.0</v>
@@ -20354,7 +20421,7 @@
         <v>1.0</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I428" s="2" t="s">
         <v>34</v>
@@ -20430,7 +20497,7 @@
         <v>1.0</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I430" s="2" t="s">
         <v>23</v>
@@ -20468,7 +20535,7 @@
         <v>1.0</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I431" s="2" t="s">
         <v>23</v>
@@ -20521,7 +20588,7 @@
         <v>27</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="433">
@@ -20567,7 +20634,7 @@
         <v>44246.80164439815</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>32</v>
@@ -20719,7 +20786,7 @@
         <v>0.8</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I438" s="2" t="s">
         <v>34</v>
@@ -20734,7 +20801,7 @@
         <v>27</v>
       </c>
       <c r="M438" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="439">
@@ -20798,7 +20865,7 @@
         <v>1.0</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I440" s="2" t="s">
         <v>23</v>
@@ -20813,7 +20880,7 @@
         <v>19</v>
       </c>
       <c r="M440" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="441">
@@ -20877,7 +20944,7 @@
         <v>0.8</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I442" s="2" t="s">
         <v>23</v>
@@ -20965,13 +21032,13 @@
         <v>7500.0</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L444" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="445">
@@ -20982,7 +21049,7 @@
         <v>20</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>25</v>
@@ -20997,7 +21064,7 @@
         <v>1.0</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I445" s="2" t="s">
         <v>34</v>
@@ -21032,7 +21099,7 @@
         <v>1.0</v>
       </c>
       <c r="H446" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I446" s="2" t="s">
         <v>34</v>
@@ -21134,7 +21201,7 @@
         <v>1.0</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>18</v>
@@ -21175,7 +21242,7 @@
         <v>1.0</v>
       </c>
       <c r="H450" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I450" s="2" t="s">
         <v>18</v>
@@ -21263,7 +21330,7 @@
         <v>27</v>
       </c>
       <c r="M452" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="453">
@@ -21289,7 +21356,7 @@
         <v>1.0</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I453" s="2" t="s">
         <v>23</v>
@@ -21327,7 +21394,7 @@
         <v>1.0</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I454" s="2" t="s">
         <v>34</v>
@@ -21385,7 +21452,7 @@
         <v>44249.31470427083</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>58</v>
@@ -21426,7 +21493,7 @@
         <v>43</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E457" s="2">
         <v>12.0</v>
@@ -21438,7 +21505,7 @@
         <v>1.0</v>
       </c>
       <c r="H457" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I457" s="2" t="s">
         <v>34</v>
@@ -21453,7 +21520,7 @@
         <v>27</v>
       </c>
       <c r="N457" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="458">
@@ -21461,7 +21528,7 @@
         <v>44249.40915908565</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>43</v>
@@ -21532,7 +21599,7 @@
         <v>27</v>
       </c>
       <c r="M459" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="460">
@@ -21570,7 +21637,7 @@
         <v>27</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="461">
@@ -21611,7 +21678,7 @@
         <v>19</v>
       </c>
       <c r="M461" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="462">
@@ -21637,7 +21704,7 @@
         <v>1.0</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I462" s="2" t="s">
         <v>18</v>
@@ -21675,7 +21742,7 @@
         <v>1.0</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I463" s="2" t="s">
         <v>23</v>
@@ -21713,7 +21780,7 @@
         <v>1.0</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I464" s="2" t="s">
         <v>23</v>
@@ -21751,7 +21818,7 @@
         <v>1.0</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I465" s="2" t="s">
         <v>34</v>
@@ -21789,7 +21856,7 @@
         <v>1.0</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I466" s="2" t="s">
         <v>18</v>
@@ -21804,7 +21871,7 @@
         <v>27</v>
       </c>
       <c r="N466" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="467">
@@ -21830,7 +21897,7 @@
         <v>1.0</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I467" s="2" t="s">
         <v>34</v>
@@ -21868,7 +21935,7 @@
         <v>1.0</v>
       </c>
       <c r="H468" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I468" s="2" t="s">
         <v>34</v>
@@ -21906,7 +21973,7 @@
         <v>1.0</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I469" s="2" t="s">
         <v>34</v>
@@ -21923,7 +21990,7 @@
         <v>44249.59106795139</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>58</v>
@@ -21941,7 +22008,7 @@
         <v>1.0</v>
       </c>
       <c r="H470" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I470" s="2" t="s">
         <v>34</v>
@@ -21954,6 +22021,950 @@
       </c>
       <c r="L470" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3">
+        <v>44249.790809618054</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E471" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G471" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J471" s="2">
+        <v>12000.0</v>
+      </c>
+      <c r="K471" s="2">
+        <v>220000.0</v>
+      </c>
+      <c r="L471" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3">
+        <v>44249.99528059028</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E472" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G472" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J472" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="K472" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="L472" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3">
+        <v>44250.37107162037</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E473" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G473" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I473" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J473" s="2">
+        <v>3500.0</v>
+      </c>
+      <c r="L473" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3">
+        <v>44250.41420712963</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E474" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G474" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J474" s="2">
+        <v>5300.0</v>
+      </c>
+      <c r="K474" s="2">
+        <v>70000.0</v>
+      </c>
+      <c r="L474" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M474" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3">
+        <v>44250.42531438658</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E475" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G475" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H475" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I475" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J475" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K475" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L475" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3">
+        <v>44250.446637581015</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E476" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G476" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H476" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I476" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J476" s="2">
+        <v>3926.0</v>
+      </c>
+      <c r="K476" s="2">
+        <v>50000.0</v>
+      </c>
+      <c r="L476" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M476" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N476" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3">
+        <v>44250.52867532407</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E477" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G477" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I477" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J477" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="K477" s="2">
+        <v>56250.0</v>
+      </c>
+      <c r="L477" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="3">
+        <v>44250.53582746528</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E478" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G478" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H478" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J478" s="2">
+        <v>1100.0</v>
+      </c>
+      <c r="K478" s="2">
+        <v>13750.0</v>
+      </c>
+      <c r="L478" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3">
+        <v>44250.54700111111</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E479" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G479" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="I479" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J479" s="2">
+        <v>4300.0</v>
+      </c>
+      <c r="K479" s="2">
+        <v>58000.0</v>
+      </c>
+      <c r="L479" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3">
+        <v>44250.58376354167</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E480" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G480" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I480" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J480" s="2">
+        <v>4000.0</v>
+      </c>
+      <c r="K480" s="2">
+        <v>52000.0</v>
+      </c>
+      <c r="L480" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3">
+        <v>44250.67977290509</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E481" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G481" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J481" s="2">
+        <v>4250.0</v>
+      </c>
+      <c r="K481" s="2">
+        <v>54000.0</v>
+      </c>
+      <c r="L481" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3">
+        <v>44250.90149023148</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E482" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G482" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H482" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I482" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K482" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L482" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M482" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3">
+        <v>44251.63873288194</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E483" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G483" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J483" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="L483" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3">
+        <v>44251.673297905094</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E484" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G484" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H484" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I484" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J484" s="2">
+        <v>3500.0</v>
+      </c>
+      <c r="K484" s="2">
+        <v>43750.0</v>
+      </c>
+      <c r="L484" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3">
+        <v>44251.72843862268</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E485" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G485" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I485" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J485" s="2">
+        <v>2900.0</v>
+      </c>
+      <c r="K485" s="2">
+        <v>36000.0</v>
+      </c>
+      <c r="L485" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3">
+        <v>44251.99261854167</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E486" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G486" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H486" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J486" s="2">
+        <v>2860.0</v>
+      </c>
+      <c r="K486" s="2">
+        <v>35850.0</v>
+      </c>
+      <c r="L486" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3">
+        <v>44252.39917092593</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E487" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G487" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H487" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J487" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="L487" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3">
+        <v>44252.453956956015</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E488" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G488" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I488" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J488" s="2">
+        <v>5100.0</v>
+      </c>
+      <c r="K488" s="2">
+        <v>64000.0</v>
+      </c>
+      <c r="L488" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="3">
+        <v>44252.46478008102</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E489" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G489" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I489" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J489" s="2">
+        <v>3500.0</v>
+      </c>
+      <c r="K489" s="2">
+        <v>44000.0</v>
+      </c>
+      <c r="L489" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="3">
+        <v>44252.46576761574</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E490" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G490" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I490" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J490" s="2">
+        <v>5200.0</v>
+      </c>
+      <c r="K490" s="2">
+        <v>68000.0</v>
+      </c>
+      <c r="L490" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="3">
+        <v>44252.52359363426</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E491" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G491" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H491" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I491" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J491" s="2">
+        <v>5500.0</v>
+      </c>
+      <c r="K491" s="2">
+        <v>68000.0</v>
+      </c>
+      <c r="L491" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="3">
+        <v>44252.590655057866</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E492" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G492" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H492" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I492" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J492" s="2">
+        <v>1081.0</v>
+      </c>
+      <c r="K492" s="2">
+        <v>14000.0</v>
+      </c>
+      <c r="L492" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N492" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="3">
+        <v>44252.88722596064</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E493" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G493" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H493" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I493" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J493" s="2">
+        <v>4600.0</v>
+      </c>
+      <c r="K493" s="2">
+        <v>58000.0</v>
+      </c>
+      <c r="L493" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="3">
+        <v>44253.39791409722</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E494" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G494" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H494" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="I494" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J494" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="K494" s="2">
+        <v>70000.0</v>
+      </c>
+      <c r="L494" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M494" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="3">
+        <v>44253.51133907407</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E495" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G495" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I495" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J495" s="2">
+        <v>4300.0</v>
+      </c>
+      <c r="K495" s="2">
+        <v>53750.0</v>
+      </c>
+      <c r="L495" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M495" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
